--- a/assignment1/digit-feature-data/Numbers.xlsx
+++ b/assignment1/digit-feature-data/Numbers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35160" yWindow="900" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="440" yWindow="640" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="3" r:id="rId1"/>
@@ -72,10 +72,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +114,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,7 +495,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3077,6 +3189,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3085,12 +3198,13 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -5779,6 +5893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5786,13 +5901,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J29" activeCellId="1" sqref="K10 J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -8481,6 +8597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8488,13 +8605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showRuler="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11183,5 +11301,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assignment1/digit-feature-data/Numbers.xlsx
+++ b/assignment1/digit-feature-data/Numbers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="640" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-38080" yWindow="1500" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>Max Hole Density</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Min Black Density</t>
+  </si>
+  <si>
+    <t>Max H Hole Balance</t>
+  </si>
+  <si>
+    <t>Min H Hole Balance</t>
+  </si>
+  <si>
+    <t>Avg H Hole Balance</t>
+  </si>
+  <si>
+    <t>Max V Hole Balance</t>
+  </si>
+  <si>
+    <t>Min V Hole Balance</t>
+  </si>
+  <si>
+    <t>Avg V Hole Balance</t>
   </si>
 </sst>
 </file>
@@ -492,18 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>43</v>
       </c>
@@ -528,8 +548,14 @@
       <c r="H1">
         <v>1376</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>0.50283542471042397</v>
+      </c>
+      <c r="J1">
+        <v>0.49057196731615299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>49</v>
       </c>
@@ -554,456 +580,546 @@
       <c r="H2">
         <v>1470</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>0.48833333333333301</v>
+      </c>
+      <c r="J2">
+        <v>0.48459669582118498</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>MAX(C:C)</f>
+        <v>0.53911205073995705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>0.51685573630136905</v>
+      </c>
+      <c r="D3">
+        <v>0.50145547945205404</v>
+      </c>
+      <c r="E3">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.31093749999999998</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1280</v>
+      </c>
+      <c r="I3">
+        <v>0.49850816582914498</v>
+      </c>
+      <c r="J3">
+        <v>0.48907035175879399</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>MIN(C:C)</f>
+        <v>0.42808219178082102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.48910820451843001</v>
+      </c>
+      <c r="D4">
+        <v>0.51759946949602098</v>
+      </c>
+      <c r="E4">
+        <v>0.48076923076923</v>
+      </c>
+      <c r="F4">
+        <v>0.32891246684350101</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1508</v>
+      </c>
+      <c r="I4">
+        <v>0.49089265850945402</v>
+      </c>
+      <c r="J4">
+        <v>0.50717276674937894</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(C:C)</f>
+        <v>0.49946983402438827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0.48583732057416201</v>
+      </c>
+      <c r="D5">
+        <v>0.52540909090909005</v>
+      </c>
+      <c r="E5">
+        <v>0.36184210526315702</v>
+      </c>
+      <c r="F5">
+        <v>0.394736842105263</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>760</v>
+      </c>
+      <c r="I5">
+        <v>0.495964912280701</v>
+      </c>
+      <c r="J5">
+        <v>0.50558333333333305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>0.50208791208791204</v>
+      </c>
+      <c r="D6">
+        <v>0.538584615384615</v>
+      </c>
+      <c r="E6">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="F6">
+        <v>0.30214285714285699</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1400</v>
+      </c>
+      <c r="I6">
+        <v>0.50189969604863205</v>
+      </c>
+      <c r="J6">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>MAX(D:D)</f>
+        <v>0.54402027726049995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0.51372685993712897</v>
+      </c>
+      <c r="D7">
+        <v>0.498166259168704</v>
+      </c>
+      <c r="E7">
+        <v>0.55646258503401302</v>
+      </c>
+      <c r="F7">
+        <v>0.17687074829931901</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1470</v>
+      </c>
+      <c r="I7">
+        <v>0.49054945054944998</v>
+      </c>
+      <c r="J7">
+        <v>0.49853479853479798</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>MIN(D:D)</f>
+        <v>0.455238095238095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0.50667719377396803</v>
+      </c>
+      <c r="D8">
+        <v>0.491803545291917</v>
+      </c>
+      <c r="E8">
+        <v>0.53638409602400605</v>
+      </c>
+      <c r="F8">
+        <v>0.241560390097524</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1333</v>
+      </c>
+      <c r="I8">
+        <v>0.50611099979963903</v>
+      </c>
+      <c r="J8">
+        <v>0.48302758919543498</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D:D)</f>
+        <v>0.50224157320146057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>0.51301272984441204</v>
+      </c>
+      <c r="D9">
+        <v>0.45799114795200402</v>
+      </c>
+      <c r="E9">
+        <v>0.60398671096345502</v>
+      </c>
+      <c r="F9">
+        <v>0.16411960132890299</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1505</v>
+      </c>
+      <c r="I9">
+        <v>0.46171197223828803</v>
+      </c>
+      <c r="J9">
+        <v>0.47787402316166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0.48886248886248801</v>
+      </c>
+      <c r="D10">
+        <v>0.51044121044121005</v>
+      </c>
+      <c r="E10">
+        <v>0.61079365079365</v>
+      </c>
+      <c r="F10">
+        <v>0.14095238095238</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1575</v>
+      </c>
+      <c r="I10">
+        <v>0.50154440154440105</v>
+      </c>
+      <c r="J10">
+        <v>0.50550550550550499</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="M10">
         <f>MAX(E:E)</f>
         <v>0.69516509433962204</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>0.51685573630136905</v>
-      </c>
-      <c r="D3">
-        <v>0.50145547945205404</v>
-      </c>
-      <c r="E3">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.31093749999999998</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1280</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0.46930473372781001</v>
+      </c>
+      <c r="D11">
+        <v>0.51798878205128196</v>
+      </c>
+      <c r="E11">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="F11">
+        <v>0.32852564102564102</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1248</v>
+      </c>
+      <c r="I11">
+        <v>0.496998123827392</v>
+      </c>
+      <c r="J11">
+        <v>0.49080284552845499</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="M11">
         <f>MIN(E:E)</f>
         <v>0.30862068965517198</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>0.48910820451843001</v>
-      </c>
-      <c r="D4">
-        <v>0.51759946949602098</v>
-      </c>
-      <c r="E4">
-        <v>0.48076923076923</v>
-      </c>
-      <c r="F4">
-        <v>0.32891246684350101</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1508</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0.50439410213846303</v>
+      </c>
+      <c r="D12">
+        <v>0.50901427764781804</v>
+      </c>
+      <c r="E12">
+        <v>0.61670480549199003</v>
+      </c>
+      <c r="F12">
+        <v>0.16247139588100601</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>874</v>
+      </c>
+      <c r="I12">
+        <v>0.47998517420311299</v>
+      </c>
+      <c r="J12">
+        <v>0.49173300673606801</v>
+      </c>
+      <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="M12">
         <f>AVERAGE(E:E)</f>
         <v>0.51078786920901997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0.48583732057416201</v>
-      </c>
-      <c r="D5">
-        <v>0.52540909090909005</v>
-      </c>
-      <c r="E5">
-        <v>0.36184210526315702</v>
-      </c>
-      <c r="F5">
-        <v>0.394736842105263</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>0.50208791208791204</v>
-      </c>
-      <c r="D6">
-        <v>0.538584615384615</v>
-      </c>
-      <c r="E6">
-        <v>0.46428571428571402</v>
-      </c>
-      <c r="F6">
-        <v>0.30214285714285699</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1400</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0.49829877724614502</v>
+      </c>
+      <c r="D13">
+        <v>0.51806367771280004</v>
+      </c>
+      <c r="E13">
+        <v>0.63973063973063904</v>
+      </c>
+      <c r="F13">
+        <v>0.17115600448933699</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1782</v>
+      </c>
+      <c r="I13">
+        <v>0.50268256333830097</v>
+      </c>
+      <c r="J13">
+        <v>0.50761991499696402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>0.497158457766882</v>
+      </c>
+      <c r="D14">
+        <v>0.50683249552204301</v>
+      </c>
+      <c r="E14">
+        <v>0.56525573192239797</v>
+      </c>
+      <c r="F14">
+        <v>0.16402116402116401</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2268</v>
+      </c>
+      <c r="I14">
+        <v>0.50057603686635899</v>
+      </c>
+      <c r="J14">
+        <v>0.50353444842692097</v>
+      </c>
+      <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M14">
         <f>MAX(F:F)</f>
         <v>0.47796352583586599</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>0.51372685993712897</v>
-      </c>
-      <c r="D7">
-        <v>0.498166259168704</v>
-      </c>
-      <c r="E7">
-        <v>0.55646258503401302</v>
-      </c>
-      <c r="F7">
-        <v>0.17687074829931901</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1470</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.50833552689304196</v>
+      </c>
+      <c r="D15">
+        <v>0.51388182075204902</v>
+      </c>
+      <c r="E15">
+        <v>0.602298850574712</v>
+      </c>
+      <c r="F15">
+        <v>0.166283524904214</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1305</v>
+      </c>
+      <c r="I15">
+        <v>0.48935324964245902</v>
+      </c>
+      <c r="J15">
+        <v>0.50880696364567302</v>
+      </c>
+      <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="M15">
         <f>MIN(F:F)</f>
         <v>0.11739130434782601</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>43</v>
-      </c>
-      <c r="B8">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>0.50667719377396803</v>
-      </c>
-      <c r="D8">
-        <v>0.491803545291917</v>
-      </c>
-      <c r="E8">
-        <v>0.53638409602400605</v>
-      </c>
-      <c r="F8">
-        <v>0.241560390097524</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1333</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>0.47633984585050998</v>
+      </c>
+      <c r="D16">
+        <v>0.51218856425882697</v>
+      </c>
+      <c r="E16">
+        <v>0.46472303206997001</v>
+      </c>
+      <c r="F16">
+        <v>0.34052478134110697</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1715</v>
+      </c>
+      <c r="I16">
+        <v>0.50572407045009704</v>
+      </c>
+      <c r="J16">
+        <v>0.51649426894045203</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="M16">
         <f>AVERAGE(F:F)</f>
         <v>0.25400238521747959</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>0.51301272984441204</v>
-      </c>
-      <c r="D9">
-        <v>0.45799114795200402</v>
-      </c>
-      <c r="E9">
-        <v>0.60398671096345502</v>
-      </c>
-      <c r="F9">
-        <v>0.16411960132890299</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>0.48886248886248801</v>
-      </c>
-      <c r="D10">
-        <v>0.51044121044121005</v>
-      </c>
-      <c r="E10">
-        <v>0.61079365079365</v>
-      </c>
-      <c r="F10">
-        <v>0.14095238095238</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1575</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>MAX(D:D)</f>
-        <v>0.54402027726049995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>48</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>0.46930473372781001</v>
-      </c>
-      <c r="D11">
-        <v>0.51798878205128196</v>
-      </c>
-      <c r="E11">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="F11">
-        <v>0.32852564102564102</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1248</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>MIN(D:D)</f>
-        <v>0.455238095238095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>0.50439410213846303</v>
-      </c>
-      <c r="D12">
-        <v>0.50901427764781804</v>
-      </c>
-      <c r="E12">
-        <v>0.61670480549199003</v>
-      </c>
-      <c r="F12">
-        <v>0.16247139588100601</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>874</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(D:D)</f>
-        <v>0.50224157320146057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0.49829877724614502</v>
-      </c>
-      <c r="D13">
-        <v>0.51806367771280004</v>
-      </c>
-      <c r="E13">
-        <v>0.63973063973063904</v>
-      </c>
-      <c r="F13">
-        <v>0.17115600448933699</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>0.497158457766882</v>
-      </c>
-      <c r="D14">
-        <v>0.50683249552204301</v>
-      </c>
-      <c r="E14">
-        <v>0.56525573192239797</v>
-      </c>
-      <c r="F14">
-        <v>0.16402116402116401</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2268</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f>MAX(C:C)</f>
-        <v>0.53911205073995705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0.50833552689304196</v>
-      </c>
-      <c r="D15">
-        <v>0.51388182075204902</v>
-      </c>
-      <c r="E15">
-        <v>0.602298850574712</v>
-      </c>
-      <c r="F15">
-        <v>0.166283524904214</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1305</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <f>MIN(C:C)</f>
-        <v>0.42808219178082102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>0.47633984585050998</v>
-      </c>
-      <c r="D16">
-        <v>0.51218856425882697</v>
-      </c>
-      <c r="E16">
-        <v>0.46472303206997001</v>
-      </c>
-      <c r="F16">
-        <v>0.34052478134110697</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1715</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f>AVERAGE(C:C)</f>
-        <v>0.49946983402438827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>35</v>
       </c>
@@ -1028,8 +1144,14 @@
       <c r="H17">
         <v>980</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.49099378881987499</v>
+      </c>
+      <c r="J17">
+        <v>0.50881987577639698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>35</v>
       </c>
@@ -1054,8 +1176,21 @@
       <c r="H18">
         <v>840</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.53761261261261195</v>
+      </c>
+      <c r="J18">
+        <v>0.50115830115830096</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>MAX(I:I)</f>
+        <v>0.55763975155279499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>48</v>
       </c>
@@ -1080,8 +1215,21 @@
       <c r="H19">
         <v>1392</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.49252181138346401</v>
+      </c>
+      <c r="J19">
+        <v>0.48192771084337299</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f>MIN(I:I)</f>
+        <v>0.44536442491832801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41</v>
       </c>
@@ -1106,8 +1254,21 @@
       <c r="H20">
         <v>943</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.50579710144927503</v>
+      </c>
+      <c r="J20">
+        <v>0.50197444831591098</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(I:I)</f>
+        <v>0.50064678841480703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>45</v>
       </c>
@@ -1132,8 +1293,14 @@
       <c r="H21">
         <v>1575</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.49426276534710201</v>
+      </c>
+      <c r="J21">
+        <v>0.498393574297188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1158,8 +1325,21 @@
       <c r="H22">
         <v>1102</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.52269751200349102</v>
+      </c>
+      <c r="J22">
+        <v>0.49633577614923302</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <f>MAX(J:J)</f>
+        <v>0.52885131508319905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>45</v>
       </c>
@@ -1184,8 +1364,21 @@
       <c r="H23">
         <v>1530</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.50287483414418399</v>
+      </c>
+      <c r="J23">
+        <v>0.50618212197159496</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f>MIN(J:J)</f>
+        <v>0.46262411347517701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>43</v>
       </c>
@@ -1210,8 +1403,21 @@
       <c r="H24">
         <v>1290</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.487349397590361</v>
+      </c>
+      <c r="J24">
+        <v>0.51779209862706599</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J:J)</f>
+        <v>0.50047099216107627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40</v>
       </c>
@@ -1236,8 +1442,14 @@
       <c r="H25">
         <v>960</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.51491769547325095</v>
+      </c>
+      <c r="J25">
+        <v>0.49228395061728297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>39</v>
       </c>
@@ -1262,8 +1474,14 @@
       <c r="H26">
         <v>1092</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.52205433455433403</v>
+      </c>
+      <c r="J26">
+        <v>0.48624808240192802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>42</v>
       </c>
@@ -1288,8 +1506,14 @@
       <c r="H27">
         <v>1008</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.49126344086021501</v>
+      </c>
+      <c r="J27">
+        <v>0.52450076804915502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>47</v>
       </c>
@@ -1314,8 +1538,14 @@
       <c r="H28">
         <v>1551</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0.44536442491832801</v>
+      </c>
+      <c r="J28">
+        <v>0.50798861029818798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>46</v>
       </c>
@@ -1340,8 +1570,14 @@
       <c r="H29">
         <v>1150</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0.50217142857142805</v>
+      </c>
+      <c r="J29">
+        <v>0.47496894409937801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>51</v>
       </c>
@@ -1366,8 +1602,14 @@
       <c r="H30">
         <v>1530</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.48326972010178099</v>
+      </c>
+      <c r="J30">
+        <v>0.51665169884747797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -1392,8 +1634,14 @@
       <c r="H31">
         <v>988</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.51355472721111395</v>
+      </c>
+      <c r="J31">
+        <v>0.51124507303500999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>37</v>
       </c>
@@ -1418,8 +1666,14 @@
       <c r="H32">
         <v>1369</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.516741437794069</v>
+      </c>
+      <c r="J32">
+        <v>0.51345880293248702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>48</v>
       </c>
@@ -1444,8 +1698,14 @@
       <c r="H33">
         <v>1488</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.51285130135652601</v>
+      </c>
+      <c r="J33">
+        <v>0.49230801475519698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>39</v>
       </c>
@@ -1470,8 +1730,14 @@
       <c r="H34">
         <v>975</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.49630363036303599</v>
+      </c>
+      <c r="J34">
+        <v>0.50888550393500798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>47</v>
       </c>
@@ -1496,8 +1762,14 @@
       <c r="H35">
         <v>1551</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.51505050505050498</v>
+      </c>
+      <c r="J35">
+        <v>0.46262411347517701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>49</v>
       </c>
@@ -1522,8 +1794,14 @@
       <c r="H36">
         <v>1323</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.51231504457310895</v>
+      </c>
+      <c r="J36">
+        <v>0.47260343343292599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50</v>
       </c>
@@ -1548,8 +1826,14 @@
       <c r="H37">
         <v>1600</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.523786896243291</v>
+      </c>
+      <c r="J37">
+        <v>0.50613595706618897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
@@ -1574,8 +1858,14 @@
       <c r="H38">
         <v>1092</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.51875561545372795</v>
+      </c>
+      <c r="J38">
+        <v>0.48000322528624401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>43</v>
       </c>
@@ -1600,8 +1890,14 @@
       <c r="H39">
         <v>1247</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.47309055752497498</v>
+      </c>
+      <c r="J39">
+        <v>0.51206259508802399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1626,8 +1922,14 @@
       <c r="H40">
         <v>1160</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.47211579395487402</v>
+      </c>
+      <c r="J40">
+        <v>0.50210905349794199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>47</v>
       </c>
@@ -1652,8 +1954,14 @@
       <c r="H41">
         <v>1551</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.50326619488296098</v>
+      </c>
+      <c r="J41">
+        <v>0.49490380940247097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>52</v>
       </c>
@@ -1678,8 +1986,14 @@
       <c r="H42">
         <v>1560</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.50526137135098403</v>
+      </c>
+      <c r="J42">
+        <v>0.52680949396835297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>54</v>
       </c>
@@ -1704,8 +2018,14 @@
       <c r="H43">
         <v>1890</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.45412038233014701</v>
+      </c>
+      <c r="J43">
+        <v>0.52255374723729098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>53</v>
       </c>
@@ -1730,8 +2050,14 @@
       <c r="H44">
         <v>1696</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.496632067137809</v>
+      </c>
+      <c r="J44">
+        <v>0.49893326221748102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1756,8 +2082,14 @@
       <c r="H45">
         <v>1353</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.51300887664523998</v>
+      </c>
+      <c r="J45">
+        <v>0.50067750677506695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>54</v>
       </c>
@@ -1782,8 +2114,14 @@
       <c r="H46">
         <v>1728</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.50578067765567702</v>
+      </c>
+      <c r="J46">
+        <v>0.49270790937457598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39</v>
       </c>
@@ -1808,8 +2146,14 @@
       <c r="H47">
         <v>1014</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.48787248787248699</v>
+      </c>
+      <c r="J47">
+        <v>0.50820050820050799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
@@ -1834,8 +2178,14 @@
       <c r="H48">
         <v>1431</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.50164394159172199</v>
+      </c>
+      <c r="J48">
+        <v>0.50650278338834398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1860,8 +2210,14 @@
       <c r="H49">
         <v>1833</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.479951815522285</v>
+      </c>
+      <c r="J49">
+        <v>0.50385549050406897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1886,8 +2242,14 @@
       <c r="H50">
         <v>1617</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.49542184434270697</v>
+      </c>
+      <c r="J50">
+        <v>0.48517104683599999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>42</v>
       </c>
@@ -1912,8 +2274,14 @@
       <c r="H51">
         <v>1134</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.49322198015008401</v>
+      </c>
+      <c r="J51">
+        <v>0.465219421101774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1938,8 +2306,14 @@
       <c r="H52">
         <v>1785</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.482229965156794</v>
+      </c>
+      <c r="J52">
+        <v>0.49742945958871299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>43</v>
       </c>
@@ -1964,8 +2338,14 @@
       <c r="H53">
         <v>1204</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.53800611153552302</v>
+      </c>
+      <c r="J53">
+        <v>0.51747295112548097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>44</v>
       </c>
@@ -1990,8 +2370,14 @@
       <c r="H54">
         <v>1320</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.50396039603960396</v>
+      </c>
+      <c r="J54">
+        <v>0.50236273627362704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>47</v>
       </c>
@@ -2016,8 +2402,14 @@
       <c r="H55">
         <v>1457</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.50969720957846798</v>
+      </c>
+      <c r="J55">
+        <v>0.49199408258277799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2042,8 +2434,14 @@
       <c r="H56">
         <v>1998</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.51126126126126104</v>
+      </c>
+      <c r="J56">
+        <v>0.52885131508319905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
@@ -2068,8 +2466,14 @@
       <c r="H57">
         <v>1696</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.50876524390243905</v>
+      </c>
+      <c r="J57">
+        <v>0.48327964411719498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>38</v>
       </c>
@@ -2094,8 +2498,14 @@
       <c r="H58">
         <v>950</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.55763975155279499</v>
+      </c>
+      <c r="J58">
+        <v>0.48112128146452998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>46</v>
       </c>
@@ -2120,8 +2530,14 @@
       <c r="H59">
         <v>1564</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.51293202105744995</v>
+      </c>
+      <c r="J59">
+        <v>0.51006597868380898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>46</v>
       </c>
@@ -2146,8 +2562,14 @@
       <c r="H60">
         <v>1610</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.499044078597981</v>
+      </c>
+      <c r="J60">
+        <v>0.50917245838047498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>46</v>
       </c>
@@ -2172,8 +2594,14 @@
       <c r="H61">
         <v>1564</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.50685160427807396</v>
+      </c>
+      <c r="J61">
+        <v>0.51114748023715395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>47</v>
       </c>
@@ -2198,8 +2626,14 @@
       <c r="H62">
         <v>1222</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.50998679432155802</v>
+      </c>
+      <c r="J62">
+        <v>0.503652634462606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>46</v>
       </c>
@@ -2224,8 +2658,14 @@
       <c r="H63">
         <v>1702</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.49572734499205001</v>
+      </c>
+      <c r="J63">
+        <v>0.49448529411764702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>41</v>
       </c>
@@ -2250,8 +2690,14 @@
       <c r="H64">
         <v>984</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.47507062146892598</v>
+      </c>
+      <c r="J64">
+        <v>0.51678379495659299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>47</v>
       </c>
@@ -2276,8 +2722,14 @@
       <c r="H65">
         <v>1786</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.50674982911824995</v>
+      </c>
+      <c r="J65">
+        <v>0.51692456479690496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>43</v>
       </c>
@@ -2302,8 +2754,14 @@
       <c r="H66">
         <v>1204</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.50234487734487698</v>
+      </c>
+      <c r="J66">
+        <v>0.51609114399811995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>46</v>
       </c>
@@ -2328,8 +2786,14 @@
       <c r="H67">
         <v>1334</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.52234993614303904</v>
+      </c>
+      <c r="J67">
+        <v>0.50935990338164205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>43</v>
       </c>
@@ -2354,8 +2818,14 @@
       <c r="H68">
         <v>1204</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.49613312478275901</v>
+      </c>
+      <c r="J68">
+        <v>0.49151247665931003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>39</v>
       </c>
@@ -2380,8 +2850,14 @@
       <c r="H69">
         <v>1014</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.52501563477173196</v>
+      </c>
+      <c r="J69">
+        <v>0.47831978319783203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>44</v>
       </c>
@@ -2406,8 +2882,14 @@
       <c r="H70">
         <v>1144</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.51731453599780997</v>
+      </c>
+      <c r="J70">
+        <v>0.49931252021999301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>47</v>
       </c>
@@ -2432,8 +2914,14 @@
       <c r="H71">
         <v>1786</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.520631397771537</v>
+      </c>
+      <c r="J71">
+        <v>0.48864759951660702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>55</v>
       </c>
@@ -2458,8 +2946,14 @@
       <c r="H72">
         <v>1815</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.48576437954676199</v>
+      </c>
+      <c r="J72">
+        <v>0.50957764170199404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>52</v>
       </c>
@@ -2484,8 +2978,14 @@
       <c r="H73">
         <v>2236</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.51127718124426702</v>
+      </c>
+      <c r="J73">
+        <v>0.49266018204533202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>42</v>
       </c>
@@ -2510,8 +3010,14 @@
       <c r="H74">
         <v>1050</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.51981132075471703</v>
+      </c>
+      <c r="J74">
+        <v>0.505053908355795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>43</v>
       </c>
@@ -2536,8 +3042,14 @@
       <c r="H75">
         <v>1333</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.512280701754386</v>
+      </c>
+      <c r="J75">
+        <v>0.50012239902080702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>41</v>
       </c>
@@ -2562,8 +3074,14 @@
       <c r="H76">
         <v>1435</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.51547125074096001</v>
+      </c>
+      <c r="J76">
+        <v>0.52803359983807296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>46</v>
       </c>
@@ -2588,8 +3106,14 @@
       <c r="H77">
         <v>1242</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.48714319414956297</v>
+      </c>
+      <c r="J77">
+        <v>0.50560786485737996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>39</v>
       </c>
@@ -2614,8 +3138,14 @@
       <c r="H78">
         <v>1287</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.51405357927096995</v>
+      </c>
+      <c r="J78">
+        <v>0.49925678186547701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39</v>
       </c>
@@ -2640,8 +3170,14 @@
       <c r="H79">
         <v>1170</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.48796296296296299</v>
+      </c>
+      <c r="J79">
+        <v>0.50751100751100697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>45</v>
       </c>
@@ -2666,8 +3202,14 @@
       <c r="H80">
         <v>1350</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.51194331983805597</v>
+      </c>
+      <c r="J80">
+        <v>0.49289248762932902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>34</v>
       </c>
@@ -2692,8 +3234,14 @@
       <c r="H81">
         <v>816</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.51375118035882905</v>
+      </c>
+      <c r="J81">
+        <v>0.51887185469088404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>45</v>
       </c>
@@ -2718,8 +3266,14 @@
       <c r="H82">
         <v>1800</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.48952464788732297</v>
+      </c>
+      <c r="J82">
+        <v>0.51431924882629099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>47</v>
       </c>
@@ -2744,8 +3298,14 @@
       <c r="H83">
         <v>1316</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.46485330073349601</v>
+      </c>
+      <c r="J83">
+        <v>0.47315715549081799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>47</v>
       </c>
@@ -2770,8 +3330,14 @@
       <c r="H84">
         <v>1316</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.47850897115602897</v>
+      </c>
+      <c r="J84">
+        <v>0.48748435544430502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>46</v>
       </c>
@@ -2796,8 +3362,14 @@
       <c r="H85">
         <v>1288</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.498071763916834</v>
+      </c>
+      <c r="J85">
+        <v>0.50668503776280804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>45</v>
       </c>
@@ -2822,8 +3394,14 @@
       <c r="H86">
         <v>1530</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.49592099613568003</v>
+      </c>
+      <c r="J86">
+        <v>0.48556366585563598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>42</v>
       </c>
@@ -2848,8 +3426,14 @@
       <c r="H87">
         <v>1260</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.50233739837398295</v>
+      </c>
+      <c r="J87">
+        <v>0.49121660859465699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>45</v>
       </c>
@@ -2874,8 +3458,14 @@
       <c r="H88">
         <v>1395</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.48882397764795499</v>
+      </c>
+      <c r="J88">
+        <v>0.49868766404199399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>37</v>
       </c>
@@ -2900,8 +3490,14 @@
       <c r="H89">
         <v>962</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.496153846153846</v>
+      </c>
+      <c r="J89">
+        <v>0.50074844074844005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>36</v>
       </c>
@@ -2926,8 +3522,14 @@
       <c r="H90">
         <v>900</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.50927536231883996</v>
+      </c>
+      <c r="J90">
+        <v>0.48570853462157798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>42</v>
       </c>
@@ -2952,8 +3554,14 @@
       <c r="H91">
         <v>1344</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.51598173515981705</v>
+      </c>
+      <c r="J91">
+        <v>0.47575559904327003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>43</v>
       </c>
@@ -2978,8 +3586,14 @@
       <c r="H92">
         <v>1204</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.48906133133881802</v>
+      </c>
+      <c r="J92">
+        <v>0.528795811518324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>42</v>
       </c>
@@ -3004,8 +3618,14 @@
       <c r="H93">
         <v>1008</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.480119825708061</v>
+      </c>
+      <c r="J93">
+        <v>0.47276688453158999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>46</v>
       </c>
@@ -3030,8 +3650,14 @@
       <c r="H94">
         <v>1150</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.53703703703703698</v>
+      </c>
+      <c r="J94">
+        <v>0.492028985507246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>37</v>
       </c>
@@ -3056,8 +3682,14 @@
       <c r="H95">
         <v>1295</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.49927206551410303</v>
+      </c>
+      <c r="J95">
+        <v>0.50309864004131499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>41</v>
       </c>
@@ -3082,8 +3714,14 @@
       <c r="H96">
         <v>1066</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.49517430135407597</v>
+      </c>
+      <c r="J96">
+        <v>0.51233214579336805</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>43</v>
       </c>
@@ -3108,8 +3746,14 @@
       <c r="H97">
         <v>1333</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.48664203495807801</v>
+      </c>
+      <c r="J97">
+        <v>0.51516238090359601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>44</v>
       </c>
@@ -3134,8 +3778,14 @@
       <c r="H98">
         <v>1012</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.48959296947271003</v>
+      </c>
+      <c r="J98">
+        <v>0.52369439071566704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>46</v>
       </c>
@@ -3160,8 +3810,14 @@
       <c r="H99">
         <v>1978</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.50047826866742395</v>
+      </c>
+      <c r="J99">
+        <v>0.491309936291494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>43</v>
       </c>
@@ -3185,6 +3841,12 @@
       </c>
       <c r="H100">
         <v>1075</v>
+      </c>
+      <c r="I100">
+        <v>0.48910994764397903</v>
+      </c>
+      <c r="J100">
+        <v>0.510105929623767</v>
       </c>
     </row>
   </sheetData>
@@ -3195,19 +3857,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection sqref="A1:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="21.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>42</v>
       </c>
@@ -3232,8 +3895,14 @@
       <c r="H1">
         <v>1596</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>0.56282894736842104</v>
+      </c>
+      <c r="J1">
+        <v>0.53541666666666599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>33</v>
       </c>
@@ -3258,456 +3927,546 @@
       <c r="H2">
         <v>891</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>0.46103896103896103</v>
+      </c>
+      <c r="J2">
+        <v>0.48071625344352598</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>MAX(C:C)</f>
+        <v>0.63155039856610495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0.49702194357366702</v>
+      </c>
+      <c r="D3">
+        <v>0.44905956112852602</v>
+      </c>
+      <c r="E3">
+        <v>0.31274509803921502</v>
+      </c>
+      <c r="F3">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1020</v>
+      </c>
+      <c r="I3">
+        <v>0.48970588235294099</v>
+      </c>
+      <c r="J3">
+        <v>0.35942906574394401</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>MIN(C:C)</f>
+        <v>0.44899675972083702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.54733622905770696</v>
+      </c>
+      <c r="D4">
+        <v>0.53704436095181596</v>
+      </c>
+      <c r="E4">
+        <v>0.34394341290892999</v>
+      </c>
+      <c r="F4">
+        <v>8.04597701149425E-2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1131</v>
+      </c>
+      <c r="I4">
+        <v>0.56707086017430797</v>
+      </c>
+      <c r="J4">
+        <v>0.499154691462383</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(C:C)</f>
+        <v>0.54726438508126762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0.59022914129110804</v>
+      </c>
+      <c r="D5">
+        <v>0.54533636278459596</v>
+      </c>
+      <c r="E5">
+        <v>0.49338942307692302</v>
+      </c>
+      <c r="F5">
+        <v>4.4471153846153799E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1664</v>
+      </c>
+      <c r="I5">
+        <v>0.48859797297297197</v>
+      </c>
+      <c r="J5">
+        <v>0.54989604989604901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.52720679651885605</v>
+      </c>
+      <c r="D6">
+        <v>0.54751296331860899</v>
+      </c>
+      <c r="E6">
+        <v>0.40757381258023101</v>
+      </c>
+      <c r="F6">
+        <v>2.1822849807445401E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1558</v>
+      </c>
+      <c r="I6">
+        <v>0.484520123839009</v>
+      </c>
+      <c r="J6">
+        <v>0.50430416068866502</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>MAX(D:D)</f>
+        <v>0.58678802531465502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.56089887640449398</v>
+      </c>
+      <c r="D7">
+        <v>0.48349446912289801</v>
+      </c>
+      <c r="E7">
+        <v>0.49674418604651099</v>
+      </c>
+      <c r="F7">
+        <v>4.0930232558139497E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1075</v>
+      </c>
+      <c r="I7">
+        <v>0.54909090909090896</v>
+      </c>
+      <c r="J7">
+        <v>0.429704016913319</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>MIN(D:D)</f>
+        <v>0.44905956112852602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>0.53808206737120201</v>
+      </c>
+      <c r="D8">
+        <v>0.54384832472679201</v>
+      </c>
+      <c r="E8">
+        <v>0.53764204545454497</v>
+      </c>
+      <c r="F8">
+        <v>4.8295454545454503E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1408</v>
+      </c>
+      <c r="I8">
+        <v>0.54733455882352899</v>
+      </c>
+      <c r="J8">
+        <v>0.56450534759358295</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D:D)</f>
+        <v>0.51961880622791845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.53296048148989295</v>
+      </c>
+      <c r="D9">
+        <v>0.55180503315367002</v>
+      </c>
+      <c r="E9">
+        <v>0.547909407665505</v>
+      </c>
+      <c r="F9">
+        <v>5.9233449477351902E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1148</v>
+      </c>
+      <c r="I9">
+        <v>0.57300420168067201</v>
+      </c>
+      <c r="J9">
+        <v>0.54626972740315605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.54427501337613704</v>
+      </c>
+      <c r="D10">
+        <v>0.49349250936329497</v>
+      </c>
+      <c r="E10">
+        <v>0.47678571428571398</v>
+      </c>
+      <c r="F10">
+        <v>8.9285714285714204E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1120</v>
+      </c>
+      <c r="I10">
+        <v>0.52892857142857097</v>
+      </c>
+      <c r="J10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="M10">
         <f>MAX(E:E)</f>
         <v>0.59935897435897401</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>0.49702194357366702</v>
-      </c>
-      <c r="D3">
-        <v>0.44905956112852602</v>
-      </c>
-      <c r="E3">
-        <v>0.31274509803921502</v>
-      </c>
-      <c r="F3">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1020</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0.51127016587139196</v>
+      </c>
+      <c r="D11">
+        <v>0.52583904727535102</v>
+      </c>
+      <c r="E11">
+        <v>0.59186637618010096</v>
+      </c>
+      <c r="F11">
+        <v>4.7204066811909903E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1377</v>
+      </c>
+      <c r="I11">
+        <v>0.60142450142450099</v>
+      </c>
+      <c r="J11">
+        <v>0.56606334841628902</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="M11">
         <f>MIN(E:E)</f>
         <v>0.25980066445182698</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="B12">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>0.54733622905770696</v>
-      </c>
-      <c r="D4">
-        <v>0.53704436095181596</v>
-      </c>
-      <c r="E4">
-        <v>0.34394341290892999</v>
-      </c>
-      <c r="F4">
-        <v>8.04597701149425E-2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="C12">
+        <v>0.61263861461339797</v>
+      </c>
+      <c r="D12">
+        <v>0.49469106517564598</v>
+      </c>
+      <c r="E12">
+        <v>0.40141467727674601</v>
+      </c>
+      <c r="F12">
+        <v>8.9301503094606494E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1131</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I12">
+        <v>0.50204848071013997</v>
+      </c>
+      <c r="J12">
+        <v>0.48019801980198001</v>
+      </c>
+      <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="M12">
         <f>AVERAGE(E:E)</f>
         <v>0.44558400732907166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>52</v>
-      </c>
-      <c r="B5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13">
         <v>32</v>
       </c>
-      <c r="C5">
-        <v>0.59022914129110804</v>
-      </c>
-      <c r="D5">
-        <v>0.54533636278459596</v>
-      </c>
-      <c r="E5">
-        <v>0.49338942307692302</v>
-      </c>
-      <c r="F5">
-        <v>4.4471153846153799E-2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>0.52720679651885605</v>
-      </c>
-      <c r="D6">
-        <v>0.54751296331860899</v>
-      </c>
-      <c r="E6">
-        <v>0.40757381258023101</v>
-      </c>
-      <c r="F6">
-        <v>2.1822849807445401E-2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1558</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C13">
+        <v>0.53733198924731096</v>
+      </c>
+      <c r="D13">
+        <v>0.501378549765646</v>
+      </c>
+      <c r="E13">
+        <v>0.37259615384615302</v>
+      </c>
+      <c r="F13">
+        <v>7.9326923076923003E-2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1248</v>
+      </c>
+      <c r="I13">
+        <v>0.53488005050505005</v>
+      </c>
+      <c r="J13">
+        <v>0.43343693343693301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>0.46520728873669998</v>
+      </c>
+      <c r="D14">
+        <v>0.52962222456066499</v>
+      </c>
+      <c r="E14">
+        <v>0.55562539283469503</v>
+      </c>
+      <c r="F14">
+        <v>5.0911376492771797E-2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1591</v>
+      </c>
+      <c r="I14">
+        <v>0.61044377711044295</v>
+      </c>
+      <c r="J14">
+        <v>0.528136663795578</v>
+      </c>
+      <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M14">
         <f>MAX(F:F)</f>
         <v>0.16258741258741199</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>43</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>0.56089887640449398</v>
-      </c>
-      <c r="D7">
-        <v>0.48349446912289801</v>
-      </c>
-      <c r="E7">
-        <v>0.49674418604651099</v>
-      </c>
-      <c r="F7">
-        <v>4.0930232558139497E-2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1075</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>0.55517586264377305</v>
+      </c>
+      <c r="D15">
+        <v>0.52336435917614099</v>
+      </c>
+      <c r="E15">
+        <v>0.56943521594684299</v>
+      </c>
+      <c r="F15">
+        <v>4.98338870431893E-2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1505</v>
+      </c>
+      <c r="I15">
+        <v>0.52628571428571402</v>
+      </c>
+      <c r="J15">
+        <v>0.52356589147286803</v>
+      </c>
+      <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="M15">
         <f>MIN(F:F)</f>
         <v>2.1822849807445401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>0.53808206737120201</v>
-      </c>
-      <c r="D8">
-        <v>0.54384832472679201</v>
-      </c>
-      <c r="E8">
-        <v>0.53764204545454497</v>
-      </c>
-      <c r="F8">
-        <v>4.8295454545454503E-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1408</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>0.568500470206035</v>
+      </c>
+      <c r="D16">
+        <v>0.52181137553000401</v>
+      </c>
+      <c r="E16">
+        <v>0.56433637284701099</v>
+      </c>
+      <c r="F16">
+        <v>4.30597771023302E-2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1974</v>
+      </c>
+      <c r="I16">
+        <v>0.51078431372549005</v>
+      </c>
+      <c r="J16">
+        <v>0.51401752190237804</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="M16">
         <f>AVERAGE(F:F)</f>
         <v>6.4404268258099681E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>0.53296048148989295</v>
-      </c>
-      <c r="D9">
-        <v>0.55180503315367002</v>
-      </c>
-      <c r="E9">
-        <v>0.547909407665505</v>
-      </c>
-      <c r="F9">
-        <v>5.9233449477351902E-2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>0.54427501337613704</v>
-      </c>
-      <c r="D10">
-        <v>0.49349250936329497</v>
-      </c>
-      <c r="E10">
-        <v>0.47678571428571398</v>
-      </c>
-      <c r="F10">
-        <v>8.9285714285714204E-2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>MAX(D:D)</f>
-        <v>0.58678802531465502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>0.51127016587139196</v>
-      </c>
-      <c r="D11">
-        <v>0.52583904727535102</v>
-      </c>
-      <c r="E11">
-        <v>0.59186637618010096</v>
-      </c>
-      <c r="F11">
-        <v>4.7204066811909903E-2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1377</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>MIN(D:D)</f>
-        <v>0.44905956112852602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>0.61263861461339797</v>
-      </c>
-      <c r="D12">
-        <v>0.49469106517564598</v>
-      </c>
-      <c r="E12">
-        <v>0.40141467727674601</v>
-      </c>
-      <c r="F12">
-        <v>8.9301503094606494E-2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1131</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(D:D)</f>
-        <v>0.51961880622791845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>0.53733198924731096</v>
-      </c>
-      <c r="D13">
-        <v>0.501378549765646</v>
-      </c>
-      <c r="E13">
-        <v>0.37259615384615302</v>
-      </c>
-      <c r="F13">
-        <v>7.9326923076923003E-2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>0.46520728873669998</v>
-      </c>
-      <c r="D14">
-        <v>0.52962222456066499</v>
-      </c>
-      <c r="E14">
-        <v>0.55562539283469503</v>
-      </c>
-      <c r="F14">
-        <v>5.0911376492771797E-2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1591</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f>MAX(C:C)</f>
-        <v>0.63155039856610495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>0.55517586264377305</v>
-      </c>
-      <c r="D15">
-        <v>0.52336435917614099</v>
-      </c>
-      <c r="E15">
-        <v>0.56943521594684299</v>
-      </c>
-      <c r="F15">
-        <v>4.98338870431893E-2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1505</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <f>MIN(C:C)</f>
-        <v>0.44899675972083702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>0.568500470206035</v>
-      </c>
-      <c r="D16">
-        <v>0.52181137553000401</v>
-      </c>
-      <c r="E16">
-        <v>0.56433637284701099</v>
-      </c>
-      <c r="F16">
-        <v>4.30597771023302E-2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1974</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f>AVERAGE(C:C)</f>
-        <v>0.54726438508126762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>51</v>
       </c>
@@ -3732,8 +4491,14 @@
       <c r="H17">
         <v>1530</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.57213114754098304</v>
+      </c>
+      <c r="J17">
+        <v>0.53053680488588795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>53</v>
       </c>
@@ -3758,8 +4523,21 @@
       <c r="H18">
         <v>1749</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.48496071829405102</v>
+      </c>
+      <c r="J18">
+        <v>0.510062893081761</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>MAX(I:I)</f>
+        <v>0.67156862745098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>43</v>
       </c>
@@ -3784,8 +4562,21 @@
       <c r="H19">
         <v>1462</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.56898120072771297</v>
+      </c>
+      <c r="J19">
+        <v>0.52829057779908895</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f>MIN(I:I)</f>
+        <v>0.43769341860944899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>43</v>
       </c>
@@ -3810,8 +4601,21 @@
       <c r="H20">
         <v>1376</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.55803571428571397</v>
+      </c>
+      <c r="J20">
+        <v>0.47286821705426302</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(I:I)</f>
+        <v>0.54539091832915199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44</v>
       </c>
@@ -3836,8 +4640,14 @@
       <c r="H21">
         <v>1144</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.50165425971877498</v>
+      </c>
+      <c r="J21">
+        <v>0.46126588465298102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>49</v>
       </c>
@@ -3862,8 +4672,21 @@
       <c r="H22">
         <v>1617</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.56392694063926896</v>
+      </c>
+      <c r="J22">
+        <v>0.469527537042214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <f>MAX(J:J)</f>
+        <v>0.58485499462943003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
@@ -3888,8 +4711,21 @@
       <c r="H23">
         <v>1189</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.54651162790697605</v>
+      </c>
+      <c r="J23">
+        <v>0.50794100964265398</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f>MIN(J:J)</f>
+        <v>0.35942906574394401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>46</v>
       </c>
@@ -3914,8 +4750,21 @@
       <c r="H24">
         <v>1702</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.51694231544977798</v>
+      </c>
+      <c r="J24">
+        <v>0.50697598961713097</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J:J)</f>
+        <v>0.49767367211004754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>54</v>
       </c>
@@ -3940,8 +4789,14 @@
       <c r="H25">
         <v>2268</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.60025580480125895</v>
+      </c>
+      <c r="J25">
+        <v>0.42110498928680701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>43</v>
       </c>
@@ -3966,8 +4821,14 @@
       <c r="H26">
         <v>1118</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.64932126696832504</v>
+      </c>
+      <c r="J26">
+        <v>0.49658002735978102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40</v>
       </c>
@@ -3992,8 +4853,14 @@
       <c r="H27">
         <v>1320</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.55986696230598598</v>
+      </c>
+      <c r="J27">
+        <v>0.46371951219512098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>44</v>
       </c>
@@ -4018,8 +4885,14 @@
       <c r="H28">
         <v>1452</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0.60563380281690105</v>
+      </c>
+      <c r="J28">
+        <v>0.53985275288092105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>37</v>
       </c>
@@ -4044,8 +4917,14 @@
       <c r="H29">
         <v>962</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0.56840311587146997</v>
+      </c>
+      <c r="J29">
+        <v>0.49521040027369101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>43</v>
       </c>
@@ -4070,8 +4949,14 @@
       <c r="H30">
         <v>1333</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.62195121951219501</v>
+      </c>
+      <c r="J30">
+        <v>0.50028360748723699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>43</v>
       </c>
@@ -4096,8 +4981,14 @@
       <c r="H31">
         <v>1247</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.51330049261083699</v>
+      </c>
+      <c r="J31">
+        <v>0.49734219269102897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>48</v>
       </c>
@@ -4122,8 +5013,14 @@
       <c r="H32">
         <v>1920</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.65230582524271796</v>
+      </c>
+      <c r="J32">
+        <v>0.48877427184465999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>40</v>
       </c>
@@ -4148,8 +5045,14 @@
       <c r="H33">
         <v>1200</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.56240310077519295</v>
+      </c>
+      <c r="J33">
+        <v>0.524709302325581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>42</v>
       </c>
@@ -4174,8 +5077,14 @@
       <c r="H34">
         <v>1092</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.53813559322033899</v>
+      </c>
+      <c r="J34">
+        <v>0.51553672316384103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4200,8 +5109,14 @@
       <c r="H35">
         <v>1054</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.56344086021505302</v>
+      </c>
+      <c r="J35">
+        <v>0.37450980392156802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41</v>
       </c>
@@ -4226,8 +5141,14 @@
       <c r="H36">
         <v>1271</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.62903225806451601</v>
+      </c>
+      <c r="J36">
+        <v>0.51764400622729601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>44</v>
       </c>
@@ -4252,8 +5173,14 @@
       <c r="H37">
         <v>1716</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.52908855850032299</v>
+      </c>
+      <c r="J37">
+        <v>0.50429717341482005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50</v>
       </c>
@@ -4278,8 +5205,14 @@
       <c r="H38">
         <v>2250</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.52784810126582205</v>
+      </c>
+      <c r="J38">
+        <v>0.53987341772151898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>48</v>
       </c>
@@ -4304,8 +5237,14 @@
       <c r="H39">
         <v>1632</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.49145006839945199</v>
+      </c>
+      <c r="J39">
+        <v>0.477955426356589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -4330,8 +5269,14 @@
       <c r="H40">
         <v>1150</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.53968992248061998</v>
+      </c>
+      <c r="J40">
+        <v>0.50362318840579701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4356,8 +5301,14 @@
       <c r="H41">
         <v>891</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.46543209876543201</v>
+      </c>
+      <c r="J41">
+        <v>0.44545454545454499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4382,8 +5333,14 @@
       <c r="H42">
         <v>1353</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.46545454545454501</v>
+      </c>
+      <c r="J42">
+        <v>0.49219512195121901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>49</v>
       </c>
@@ -4408,8 +5365,14 @@
       <c r="H43">
         <v>1617</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.644094001236858</v>
+      </c>
+      <c r="J43">
+        <v>0.54893794252394801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4434,8 +5397,14 @@
       <c r="H44">
         <v>1419</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.59848484848484795</v>
+      </c>
+      <c r="J44">
+        <v>0.52697674418604601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
@@ -4460,8 +5429,14 @@
       <c r="H45">
         <v>1334</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.52320954907161799</v>
+      </c>
+      <c r="J45">
+        <v>0.521321070234113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4486,8 +5461,14 @@
       <c r="H46">
         <v>1290</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.44149659863945501</v>
+      </c>
+      <c r="J46">
+        <v>0.46986236355007099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>49</v>
       </c>
@@ -4512,8 +5493,14 @@
       <c r="H47">
         <v>1519</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.54943443653121005</v>
+      </c>
+      <c r="J47">
+        <v>0.49920487675589698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>52</v>
       </c>
@@ -4538,8 +5525,14 @@
       <c r="H48">
         <v>1820</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.66346604215456595</v>
+      </c>
+      <c r="J48">
+        <v>0.53420554854980995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51</v>
       </c>
@@ -4564,8 +5557,14 @@
       <c r="H49">
         <v>2040</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.51223684210526299</v>
+      </c>
+      <c r="J49">
+        <v>0.49215686274509801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -4590,8 +5589,14 @@
       <c r="H50">
         <v>1518</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.58857808857808802</v>
+      </c>
+      <c r="J50">
+        <v>0.44039655996177701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4616,8 +5621,14 @@
       <c r="H51">
         <v>1734</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.642483660130719</v>
+      </c>
+      <c r="J51">
+        <v>0.526143790849673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
@@ -4642,8 +5653,14 @@
       <c r="H52">
         <v>1696</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.51407541322313999</v>
+      </c>
+      <c r="J52">
+        <v>0.51762045844378601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>42</v>
       </c>
@@ -4668,8 +5685,14 @@
       <c r="H53">
         <v>1092</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.51331360946745497</v>
+      </c>
+      <c r="J53">
+        <v>0.44492412349555199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>44</v>
       </c>
@@ -4694,8 +5717,14 @@
       <c r="H54">
         <v>1452</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.51447308909995404</v>
+      </c>
+      <c r="J54">
+        <v>0.45776797829036597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>43</v>
       </c>
@@ -4720,8 +5749,14 @@
       <c r="H55">
         <v>1462</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.46919713831478499</v>
+      </c>
+      <c r="J55">
+        <v>0.46998742928975401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40</v>
       </c>
@@ -4746,8 +5781,14 @@
       <c r="H56">
         <v>1640</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.56906290115532698</v>
+      </c>
+      <c r="J56">
+        <v>0.44039473684210501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>43</v>
       </c>
@@ -4772,8 +5813,14 @@
       <c r="H57">
         <v>1333</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.51771921853702796</v>
+      </c>
+      <c r="J57">
+        <v>0.457091385522436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4798,8 +5845,14 @@
       <c r="H58">
         <v>2438</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.57499316379545995</v>
+      </c>
+      <c r="J58">
+        <v>0.50783196867212499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>42</v>
       </c>
@@ -4824,8 +5877,14 @@
       <c r="H59">
         <v>1176</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.63645552560646901</v>
+      </c>
+      <c r="J59">
+        <v>0.49550763701707001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>50</v>
       </c>
@@ -4850,8 +5909,14 @@
       <c r="H60">
         <v>1700</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.54175118323191296</v>
+      </c>
+      <c r="J60">
+        <v>0.53804597701149404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>42</v>
       </c>
@@ -4876,8 +5941,14 @@
       <c r="H61">
         <v>1512</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.55586419753086402</v>
+      </c>
+      <c r="J61">
+        <v>0.51102292768959401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>45</v>
       </c>
@@ -4902,8 +5973,14 @@
       <c r="H62">
         <v>1260</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.59554491899852702</v>
+      </c>
+      <c r="J62">
+        <v>0.51786941580755996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>49</v>
       </c>
@@ -4928,8 +6005,14 @@
       <c r="H63">
         <v>1617</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.494683678894205</v>
+      </c>
+      <c r="J63">
+        <v>0.58485499462943003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>36</v>
       </c>
@@ -4954,8 +6037,14 @@
       <c r="H64">
         <v>756</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.53703703703703698</v>
+      </c>
+      <c r="J64">
+        <v>0.57407407407407396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>39</v>
       </c>
@@ -4980,8 +6069,14 @@
       <c r="H65">
         <v>1521</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.51250781738586604</v>
+      </c>
+      <c r="J65">
+        <v>0.53689806128830497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>43</v>
       </c>
@@ -5006,8 +6101,14 @@
       <c r="H66">
         <v>1419</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.44585196224540402</v>
+      </c>
+      <c r="J66">
+        <v>0.45901639344262202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>40</v>
       </c>
@@ -5032,8 +6133,14 @@
       <c r="H67">
         <v>1200</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.50555555555555498</v>
+      </c>
+      <c r="J67">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>41</v>
       </c>
@@ -5058,8 +6165,14 @@
       <c r="H68">
         <v>1148</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.52420634920634901</v>
+      </c>
+      <c r="J68">
+        <v>0.44308943089430802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>46</v>
       </c>
@@ -5084,8 +6197,14 @@
       <c r="H69">
         <v>1242</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.484567901234567</v>
+      </c>
+      <c r="J69">
+        <v>0.50724637681159401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>49</v>
       </c>
@@ -5110,8 +6229,14 @@
       <c r="H70">
         <v>1764</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.62440898345153595</v>
+      </c>
+      <c r="J70">
+        <v>0.53886235345201905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>46</v>
       </c>
@@ -5136,8 +6261,14 @@
       <c r="H71">
         <v>1334</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.52298850574712596</v>
+      </c>
+      <c r="J71">
+        <v>0.56246376811594201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38</v>
       </c>
@@ -5162,8 +6293,14 @@
       <c r="H72">
         <v>1292</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.62600267379679098</v>
+      </c>
+      <c r="J72">
+        <v>0.48205741626794202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>43</v>
       </c>
@@ -5188,8 +6325,14 @@
       <c r="H73">
         <v>1505</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.50430528375733796</v>
+      </c>
+      <c r="J73">
+        <v>0.51019432940426801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>55</v>
       </c>
@@ -5214,8 +6357,14 @@
       <c r="H74">
         <v>1485</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.54541062801932305</v>
+      </c>
+      <c r="J74">
+        <v>0.52703557312252902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>44</v>
       </c>
@@ -5240,8 +6389,14 @@
       <c r="H75">
         <v>1408</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.60321624087591197</v>
+      </c>
+      <c r="J75">
+        <v>0.492120106171201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>45</v>
       </c>
@@ -5266,8 +6421,14 @@
       <c r="H76">
         <v>1800</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J76">
+        <v>0.42444444444444401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>43</v>
       </c>
@@ -5292,8 +6453,14 @@
       <c r="H77">
         <v>1462</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.57536764705882304</v>
+      </c>
+      <c r="J77">
+        <v>0.484496124031007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>45</v>
       </c>
@@ -5318,8 +6485,14 @@
       <c r="H78">
         <v>1665</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.54180180180180104</v>
+      </c>
+      <c r="J78">
+        <v>0.49288888888888799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>42</v>
       </c>
@@ -5344,8 +6517,14 @@
       <c r="H79">
         <v>1260</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.50868945868945803</v>
+      </c>
+      <c r="J79">
+        <v>0.49318274318274302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>46</v>
       </c>
@@ -5370,8 +6549,14 @@
       <c r="H80">
         <v>1702</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.43769341860944899</v>
+      </c>
+      <c r="J80">
+        <v>0.557666777298373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>46</v>
       </c>
@@ -5396,8 +6581,14 @@
       <c r="H81">
         <v>1150</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.52088888888888796</v>
+      </c>
+      <c r="J81">
+        <v>0.532850241545893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>46</v>
       </c>
@@ -5422,8 +6613,14 @@
       <c r="H82">
         <v>1288</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.52415966386554602</v>
+      </c>
+      <c r="J82">
+        <v>0.47586317135549799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>41</v>
       </c>
@@ -5448,8 +6645,14 @@
       <c r="H83">
         <v>1271</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.50537634408602095</v>
+      </c>
+      <c r="J83">
+        <v>0.40898825654923199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>48</v>
       </c>
@@ -5474,8 +6677,14 @@
       <c r="H84">
         <v>1872</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.54107312440645705</v>
+      </c>
+      <c r="J84">
+        <v>0.50771604938271597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>43</v>
       </c>
@@ -5500,8 +6709,14 @@
       <c r="H85">
         <v>1419</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.535619351408825</v>
+      </c>
+      <c r="J85">
+        <v>0.478988168094655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>44</v>
       </c>
@@ -5526,8 +6741,14 @@
       <c r="H86">
         <v>1496</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.56771545827633296</v>
+      </c>
+      <c r="J86">
+        <v>0.50528541226215595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>42</v>
       </c>
@@ -5552,8 +6773,14 @@
       <c r="H87">
         <v>1470</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.509920634920634</v>
+      </c>
+      <c r="J87">
+        <v>0.48280423280423201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>49</v>
       </c>
@@ -5578,8 +6805,14 @@
       <c r="H88">
         <v>1813</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.551449039400846</v>
+      </c>
+      <c r="J88">
+        <v>0.46115072535038099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>40</v>
       </c>
@@ -5604,8 +6837,14 @@
       <c r="H89">
         <v>1120</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.54855889724310702</v>
+      </c>
+      <c r="J89">
+        <v>0.50723684210526299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>45</v>
       </c>
@@ -5630,8 +6869,14 @@
       <c r="H90">
         <v>1350</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.52258064516128999</v>
+      </c>
+      <c r="J90">
+        <v>0.48207885304659498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>46</v>
       </c>
@@ -5656,8 +6901,14 @@
       <c r="H91">
         <v>1656</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.52598039215686199</v>
+      </c>
+      <c r="J91">
+        <v>0.44156010230178999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>44</v>
       </c>
@@ -5682,8 +6933,14 @@
       <c r="H92">
         <v>1408</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.46274038461538403</v>
+      </c>
+      <c r="J92">
+        <v>0.48671328671328601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>51</v>
       </c>
@@ -5708,8 +6965,14 @@
       <c r="H93">
         <v>2142</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.55658436213991702</v>
+      </c>
+      <c r="J93">
+        <v>0.483781166787702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>49</v>
       </c>
@@ -5734,8 +6997,14 @@
       <c r="H94">
         <v>1666</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.64640035118524997</v>
+      </c>
+      <c r="J94">
+        <v>0.56579348157173304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>40</v>
       </c>
@@ -5760,8 +7029,14 @@
       <c r="H95">
         <v>1240</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.56148331954783504</v>
+      </c>
+      <c r="J95">
+        <v>0.51741452991452896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>50</v>
       </c>
@@ -5786,8 +7061,14 @@
       <c r="H96">
         <v>2250</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.51214814814814802</v>
+      </c>
+      <c r="J96">
+        <v>0.54813333333333303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>50</v>
       </c>
@@ -5812,8 +7093,14 @@
       <c r="H97">
         <v>1700</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.67156862745098</v>
+      </c>
+      <c r="J97">
+        <v>0.54541666666666599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>40</v>
       </c>
@@ -5838,8 +7125,14 @@
       <c r="H98">
         <v>1360</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.57492997198879503</v>
+      </c>
+      <c r="J98">
+        <v>0.53591269841269795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>44</v>
       </c>
@@ -5864,8 +7157,14 @@
       <c r="H99">
         <v>1364</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.60085749285422596</v>
+      </c>
+      <c r="J99">
+        <v>0.43167433831990798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>41</v>
       </c>
@@ -5889,6 +7188,12 @@
       </c>
       <c r="H100">
         <v>1312</v>
+      </c>
+      <c r="I100">
+        <v>0.48218201754385898</v>
+      </c>
+      <c r="J100">
+        <v>0.55819426615318701</v>
       </c>
     </row>
   </sheetData>
@@ -5899,19 +7204,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J29" activeCellId="1" sqref="K10 J29"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>51</v>
       </c>
@@ -5936,8 +7242,14 @@
       <c r="H1">
         <v>1836</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>0.47482638888888801</v>
+      </c>
+      <c r="J1">
+        <v>0.69313725490195999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>40</v>
       </c>
@@ -5962,456 +7274,546 @@
       <c r="H2">
         <v>1160</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>0.42592592592592499</v>
+      </c>
+      <c r="J2">
+        <v>0.67052469135802395</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>MAX(C:C)</f>
+        <v>0.51220430107526804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0.50451321727917398</v>
+      </c>
+      <c r="D3">
+        <v>0.54576032540675801</v>
+      </c>
+      <c r="E3">
+        <v>0.44682115270350498</v>
+      </c>
+      <c r="F3">
+        <v>0.15448603683897799</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1683</v>
+      </c>
+      <c r="I3">
+        <v>0.51888111888111799</v>
+      </c>
+      <c r="J3">
+        <v>0.67292609351432797</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>MIN(C:C)</f>
+        <v>0.40194206714943997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.45055617352614002</v>
+      </c>
+      <c r="D4">
+        <v>0.55645161290322498</v>
+      </c>
+      <c r="E4">
+        <v>0.49719326383319901</v>
+      </c>
+      <c r="F4">
+        <v>8.50040096230954E-2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1247</v>
+      </c>
+      <c r="I4">
+        <v>0.52569941444372104</v>
+      </c>
+      <c r="J4">
+        <v>0.68582711715664701</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(C:C)</f>
+        <v>0.46690273627576495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.46546052631578899</v>
+      </c>
+      <c r="D5">
+        <v>0.54396662387676498</v>
+      </c>
+      <c r="E5">
+        <v>0.30894308943089399</v>
+      </c>
+      <c r="F5">
+        <v>0.154471544715447</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>984</v>
+      </c>
+      <c r="I5">
+        <v>0.49177631578947301</v>
+      </c>
+      <c r="J5">
+        <v>0.71630295250320897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0.46500946969696899</v>
+      </c>
+      <c r="D6">
+        <v>0.46015561015561002</v>
+      </c>
+      <c r="E6">
+        <v>0.55743243243243201</v>
+      </c>
+      <c r="F6">
+        <v>6.7567567567567502E-2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1184</v>
+      </c>
+      <c r="I6">
+        <v>0.58945312500000002</v>
+      </c>
+      <c r="J6">
+        <v>0.63614864864864795</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>MAX(D:D)</f>
+        <v>0.60045118292375699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0.47409194818389599</v>
+      </c>
+      <c r="D7">
+        <v>0.52304813939073902</v>
+      </c>
+      <c r="E7">
+        <v>0.58525345622119795</v>
+      </c>
+      <c r="F7">
+        <v>8.0974325213956505E-2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1519</v>
+      </c>
+      <c r="I7">
+        <v>0.47141358510359199</v>
+      </c>
+      <c r="J7">
+        <v>0.65231458437033296</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>MIN(D:D)</f>
+        <v>0.46015561015561002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0.44574417119131199</v>
+      </c>
+      <c r="D8">
+        <v>0.51765877807292904</v>
+      </c>
+      <c r="E8">
+        <v>0.63571990558615199</v>
+      </c>
+      <c r="F8">
+        <v>7.9464988198268999E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1271</v>
+      </c>
+      <c r="I8">
+        <v>0.50511018843819799</v>
+      </c>
+      <c r="J8">
+        <v>0.64658295097802398</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D:D)</f>
+        <v>0.51598542822979843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>0.49067448879243097</v>
+      </c>
+      <c r="D9">
+        <v>0.55996978465162695</v>
+      </c>
+      <c r="E9">
+        <v>0.439602868174296</v>
+      </c>
+      <c r="F9">
+        <v>0.159404302261445</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1813</v>
+      </c>
+      <c r="I9">
+        <v>0.48241840456373303</v>
+      </c>
+      <c r="J9">
+        <v>0.70740060730174403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0.46772028959915202</v>
+      </c>
+      <c r="D10">
+        <v>0.506036737861844</v>
+      </c>
+      <c r="E10">
+        <v>0.53754152823920198</v>
+      </c>
+      <c r="F10">
+        <v>7.2425249169435199E-2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1505</v>
+      </c>
+      <c r="I10">
+        <v>0.57889908256880696</v>
+      </c>
+      <c r="J10">
+        <v>0.65809686366545705</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="M10">
         <f>MAX(E:E)</f>
         <v>0.65046296296296202</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>0.50451321727917398</v>
-      </c>
-      <c r="D3">
-        <v>0.54576032540675801</v>
-      </c>
-      <c r="E3">
-        <v>0.44682115270350498</v>
-      </c>
-      <c r="F3">
-        <v>0.15448603683897799</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1683</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0.50286041189931296</v>
+      </c>
+      <c r="D11">
+        <v>0.54456865848832603</v>
+      </c>
+      <c r="E11">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="F11">
+        <v>6.8649885583524001E-2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>874</v>
+      </c>
+      <c r="I11">
+        <v>0.48478260869565198</v>
+      </c>
+      <c r="J11">
+        <v>0.66929824561403495</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="M11">
         <f>MIN(E:E)</f>
         <v>0.30894308943089399</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>0.45055617352614002</v>
-      </c>
-      <c r="D4">
-        <v>0.55645161290322498</v>
-      </c>
-      <c r="E4">
-        <v>0.49719326383319901</v>
-      </c>
-      <c r="F4">
-        <v>8.50040096230954E-2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1247</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0.45886789181692</v>
+      </c>
+      <c r="D12">
+        <v>0.50583557116298195</v>
+      </c>
+      <c r="E12">
+        <v>0.62613981762917903</v>
+      </c>
+      <c r="F12">
+        <v>8.0547112462005993E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1316</v>
+      </c>
+      <c r="I12">
+        <v>0.49326145552560602</v>
+      </c>
+      <c r="J12">
+        <v>0.62003211561621796</v>
+      </c>
+      <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="M12">
         <f>AVERAGE(E:E)</f>
         <v>0.51049573195869302</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0.46546052631578899</v>
-      </c>
-      <c r="D5">
-        <v>0.54396662387676498</v>
-      </c>
-      <c r="E5">
-        <v>0.30894308943089399</v>
-      </c>
-      <c r="F5">
-        <v>0.154471544715447</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>0.46500946969696899</v>
-      </c>
-      <c r="D6">
-        <v>0.46015561015561002</v>
-      </c>
-      <c r="E6">
-        <v>0.55743243243243201</v>
-      </c>
-      <c r="F6">
-        <v>6.7567567567567502E-2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1184</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0.47175398633257398</v>
+      </c>
+      <c r="D13">
+        <v>0.53842065299924002</v>
+      </c>
+      <c r="E13">
+        <v>0.48777777777777698</v>
+      </c>
+      <c r="F13">
+        <v>6.6111111111111107E-2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1800</v>
+      </c>
+      <c r="I13">
+        <v>0.57909663865546201</v>
+      </c>
+      <c r="J13">
+        <v>0.68020541549953295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.46439520624303199</v>
+      </c>
+      <c r="D14">
+        <v>0.50632045088566802</v>
+      </c>
+      <c r="E14">
+        <v>0.47179487179487101</v>
+      </c>
+      <c r="F14">
+        <v>0.138461538461538</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1170</v>
+      </c>
+      <c r="I14">
+        <v>0.526353276353276</v>
+      </c>
+      <c r="J14">
+        <v>0.68299039780521198</v>
+      </c>
+      <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M14">
         <f>MAX(F:F)</f>
         <v>0.217857142857142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>0.47409194818389599</v>
-      </c>
-      <c r="D7">
-        <v>0.52304813939073902</v>
-      </c>
-      <c r="E7">
-        <v>0.58525345622119795</v>
-      </c>
-      <c r="F7">
-        <v>8.0974325213956505E-2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1519</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.44563272608978499</v>
+      </c>
+      <c r="D15">
+        <v>0.48208550782818099</v>
+      </c>
+      <c r="E15">
+        <v>0.62215700660308104</v>
+      </c>
+      <c r="F15">
+        <v>7.04328686720469E-2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1363</v>
+      </c>
+      <c r="I15">
+        <v>0.52047413793103403</v>
+      </c>
+      <c r="J15">
+        <v>0.68461879432624095</v>
+      </c>
+      <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="M15">
         <f>MIN(F:F)</f>
         <v>5.2083333333333301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>0.44574417119131199</v>
-      </c>
-      <c r="D8">
-        <v>0.51765877807292904</v>
-      </c>
-      <c r="E8">
-        <v>0.63571990558615199</v>
-      </c>
-      <c r="F8">
-        <v>7.9464988198268999E-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1271</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0.458666184206863</v>
+      </c>
+      <c r="D16">
+        <v>0.50007185112446995</v>
+      </c>
+      <c r="E16">
+        <v>0.61030798240100503</v>
+      </c>
+      <c r="F16">
+        <v>7.2910119421747299E-2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1591</v>
+      </c>
+      <c r="I16">
+        <v>0.53098788443615996</v>
+      </c>
+      <c r="J16">
+        <v>0.631515637530072</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="M16">
         <f>AVERAGE(F:F)</f>
         <v>0.11210897974044158</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>0.49067448879243097</v>
-      </c>
-      <c r="D9">
-        <v>0.55996978465162695</v>
-      </c>
-      <c r="E9">
-        <v>0.439602868174296</v>
-      </c>
-      <c r="F9">
-        <v>0.159404302261445</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>0.46772028959915202</v>
-      </c>
-      <c r="D10">
-        <v>0.506036737861844</v>
-      </c>
-      <c r="E10">
-        <v>0.53754152823920198</v>
-      </c>
-      <c r="F10">
-        <v>7.2425249169435199E-2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1505</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>MAX(D:D)</f>
-        <v>0.60045118292375699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.50286041189931296</v>
-      </c>
-      <c r="D11">
-        <v>0.54456865848832603</v>
-      </c>
-      <c r="E11">
-        <v>0.60869565217391297</v>
-      </c>
-      <c r="F11">
-        <v>6.8649885583524001E-2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>874</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>MIN(D:D)</f>
-        <v>0.46015561015561002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>0.45886789181692</v>
-      </c>
-      <c r="D12">
-        <v>0.50583557116298195</v>
-      </c>
-      <c r="E12">
-        <v>0.62613981762917903</v>
-      </c>
-      <c r="F12">
-        <v>8.0547112462005993E-2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1316</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(D:D)</f>
-        <v>0.51598542822979843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>0.47175398633257398</v>
-      </c>
-      <c r="D13">
-        <v>0.53842065299924002</v>
-      </c>
-      <c r="E13">
-        <v>0.48777777777777698</v>
-      </c>
-      <c r="F13">
-        <v>6.6111111111111107E-2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0.46439520624303199</v>
-      </c>
-      <c r="D14">
-        <v>0.50632045088566802</v>
-      </c>
-      <c r="E14">
-        <v>0.47179487179487101</v>
-      </c>
-      <c r="F14">
-        <v>0.138461538461538</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1170</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f>MAX(C:C)</f>
-        <v>0.51220430107526804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0.44563272608978499</v>
-      </c>
-      <c r="D15">
-        <v>0.48208550782818099</v>
-      </c>
-      <c r="E15">
-        <v>0.62215700660308104</v>
-      </c>
-      <c r="F15">
-        <v>7.04328686720469E-2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1363</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <f>MIN(C:C)</f>
-        <v>0.40194206714943997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>0.458666184206863</v>
-      </c>
-      <c r="D16">
-        <v>0.50007185112446995</v>
-      </c>
-      <c r="E16">
-        <v>0.61030798240100503</v>
-      </c>
-      <c r="F16">
-        <v>7.2910119421747299E-2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1591</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f>AVERAGE(C:C)</f>
-        <v>0.46690273627576495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>48</v>
       </c>
@@ -6436,8 +7838,14 @@
       <c r="H17">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.66791383219954603</v>
+      </c>
+      <c r="J17">
+        <v>0.65089285714285705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>48</v>
       </c>
@@ -6462,8 +7870,21 @@
       <c r="H18">
         <v>1728</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.46404649330181202</v>
+      </c>
+      <c r="J18">
+        <v>0.68003841607564997</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>MAX(I:I)</f>
+        <v>0.66791383219954603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>45</v>
       </c>
@@ -6488,8 +7909,21 @@
       <c r="H19">
         <v>1530</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.47695346795434501</v>
+      </c>
+      <c r="J19">
+        <v>0.66102819237147503</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f>MIN(I:I)</f>
+        <v>0.39287469287469201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>46</v>
       </c>
@@ -6514,8 +7948,21 @@
       <c r="H20">
         <v>1242</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.45495998511073799</v>
+      </c>
+      <c r="J20">
+        <v>0.67844658072973496</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(I:I)</f>
+        <v>0.52012408539091859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>49</v>
       </c>
@@ -6540,8 +7987,14 @@
       <c r="H21">
         <v>1764</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.54215744012563805</v>
+      </c>
+      <c r="J21">
+        <v>0.67328910362731598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>40</v>
       </c>
@@ -6566,8 +8019,21 @@
       <c r="H22">
         <v>1320</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.54520341536916095</v>
+      </c>
+      <c r="J22">
+        <v>0.641781767955801</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <f>MAX(J:J)</f>
+        <v>0.71630295250320897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56</v>
       </c>
@@ -6592,8 +8058,21 @@
       <c r="H23">
         <v>1792</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.501264158576051</v>
+      </c>
+      <c r="J23">
+        <v>0.64502427184466005</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f>MIN(J:J)</f>
+        <v>0.62003211561621796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>52</v>
       </c>
@@ -6618,8 +8097,21 @@
       <c r="H24">
         <v>1560</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.50093632958801504</v>
+      </c>
+      <c r="J24">
+        <v>0.64351051570152695</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J:J)</f>
+        <v>0.66581603974379533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>45</v>
       </c>
@@ -6644,8 +8136,14 @@
       <c r="H25">
         <v>990</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.431177976952624</v>
+      </c>
+      <c r="J25">
+        <v>0.65837245696400604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>41</v>
       </c>
@@ -6670,8 +8168,14 @@
       <c r="H26">
         <v>1312</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.552017405063291</v>
+      </c>
+      <c r="J26">
+        <v>0.650355047854276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>54</v>
       </c>
@@ -6696,8 +8200,14 @@
       <c r="H27">
         <v>2430</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.45768518518518497</v>
+      </c>
+      <c r="J27">
+        <v>0.65771604938271599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>45</v>
       </c>
@@ -6722,8 +8232,14 @@
       <c r="H28">
         <v>1440</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0.44520833333333298</v>
+      </c>
+      <c r="J28">
+        <v>0.70217283950617204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>43</v>
       </c>
@@ -6748,8 +8264,14 @@
       <c r="H29">
         <v>1419</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0.47269997269997199</v>
+      </c>
+      <c r="J29">
+        <v>0.656505342551854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>41</v>
       </c>
@@ -6774,8 +8296,14 @@
       <c r="H30">
         <v>1025</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.49652173913043401</v>
+      </c>
+      <c r="J30">
+        <v>0.65111346765641498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>51</v>
       </c>
@@ -6800,8 +8328,14 @@
       <c r="H31">
         <v>1479</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.46522377109317598</v>
+      </c>
+      <c r="J31">
+        <v>0.65778055903212296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>39</v>
       </c>
@@ -6826,8 +8360,14 @@
       <c r="H32">
         <v>858</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.493801652892561</v>
+      </c>
+      <c r="J32">
+        <v>0.67793317793317698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>53</v>
       </c>
@@ -6852,8 +8392,14 @@
       <c r="H33">
         <v>1749</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.56428253119429495</v>
+      </c>
+      <c r="J33">
+        <v>0.65170643729189703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>48</v>
       </c>
@@ -6878,8 +8424,14 @@
       <c r="H34">
         <v>2016</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.62035423925667799</v>
+      </c>
+      <c r="J34">
+        <v>0.64507113821138196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>45</v>
       </c>
@@ -6904,8 +8456,14 @@
       <c r="H35">
         <v>1395</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.44786987886211999</v>
+      </c>
+      <c r="J35">
+        <v>0.65893108298171499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>44</v>
       </c>
@@ -6930,8 +8488,14 @@
       <c r="H36">
         <v>1276</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.50787277594079605</v>
+      </c>
+      <c r="J36">
+        <v>0.65063304275633005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>39</v>
       </c>
@@ -6956,8 +8520,14 @@
       <c r="H37">
         <v>1092</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.43320964749536101</v>
+      </c>
+      <c r="J37">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>49</v>
       </c>
@@ -6982,8 +8552,14 @@
       <c r="H38">
         <v>1666</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.60269607843137196</v>
+      </c>
+      <c r="J38">
+        <v>0.66989795918367301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>49</v>
       </c>
@@ -7008,8 +8584,14 @@
       <c r="H39">
         <v>1813</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.39287469287469201</v>
+      </c>
+      <c r="J39">
+        <v>0.66196660482374703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>49</v>
       </c>
@@ -7034,8 +8616,14 @@
       <c r="H40">
         <v>1421</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.46223316912972001</v>
+      </c>
+      <c r="J40">
+        <v>0.706413994169096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -7060,8 +8648,14 @@
       <c r="H41">
         <v>1408</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.59149484536082397</v>
+      </c>
+      <c r="J41">
+        <v>0.66916588566073099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>52</v>
       </c>
@@ -7086,8 +8680,14 @@
       <c r="H42">
         <v>1716</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.56060606060606</v>
+      </c>
+      <c r="J42">
+        <v>0.66363636363636302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -7112,8 +8712,14 @@
       <c r="H43">
         <v>1247</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.52235991379310298</v>
+      </c>
+      <c r="J43">
+        <v>0.68586482558139505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>52</v>
       </c>
@@ -7138,8 +8744,14 @@
       <c r="H44">
         <v>2340</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.54204204204204198</v>
+      </c>
+      <c r="J44">
+        <v>0.66956860706860699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>37</v>
       </c>
@@ -7164,8 +8776,14 @@
       <c r="H45">
         <v>925</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.46839506172839501</v>
+      </c>
+      <c r="J45">
+        <v>0.66383049716383002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>54</v>
       </c>
@@ -7190,8 +8808,14 @@
       <c r="H46">
         <v>2052</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.41553480475381999</v>
+      </c>
+      <c r="J46">
+        <v>0.66636798088410998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
@@ -7216,8 +8840,14 @@
       <c r="H47">
         <v>1924</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.56638853618719298</v>
+      </c>
+      <c r="J47">
+        <v>0.66894682498709301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7242,8 +8872,14 @@
       <c r="H48">
         <v>1504</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.54629984662576603</v>
+      </c>
+      <c r="J48">
+        <v>0.67934995431405798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -7268,8 +8904,14 @@
       <c r="H49">
         <v>1584</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.52764550264550203</v>
+      </c>
+      <c r="J49">
+        <v>0.66352813852813797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7294,8 +8936,14 @@
       <c r="H50">
         <v>1242</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.53298845404108497</v>
+      </c>
+      <c r="J50">
+        <v>0.65776271783136697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>53</v>
       </c>
@@ -7320,8 +8968,14 @@
       <c r="H51">
         <v>1696</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.47068698347107402</v>
+      </c>
+      <c r="J51">
+        <v>0.686496179635116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>45</v>
       </c>
@@ -7346,8 +9000,14 @@
       <c r="H52">
         <v>1350</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.47836879432624102</v>
+      </c>
+      <c r="J52">
+        <v>0.65356973995271805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7372,8 +9032,14 @@
       <c r="H53">
         <v>1275</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.47978494623655898</v>
+      </c>
+      <c r="J53">
+        <v>0.67836812144212499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -7398,8 +9064,14 @@
       <c r="H54">
         <v>1300</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.54199372056514905</v>
+      </c>
+      <c r="J54">
+        <v>0.65102040816326501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -7424,8 +9096,14 @@
       <c r="H55">
         <v>1242</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.50546960462572199</v>
+      </c>
+      <c r="J55">
+        <v>0.64020363236103395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40</v>
       </c>
@@ -7450,8 +9128,14 @@
       <c r="H56">
         <v>1480</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.64694004349176704</v>
+      </c>
+      <c r="J56">
+        <v>0.64727011494252795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>49</v>
       </c>
@@ -7476,8 +9160,14 @@
       <c r="H57">
         <v>2205</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.63287795992714002</v>
+      </c>
+      <c r="J57">
+        <v>0.69028103044496403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>49</v>
       </c>
@@ -7502,8 +9192,14 @@
       <c r="H58">
         <v>1715</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.62506265664160399</v>
+      </c>
+      <c r="J58">
+        <v>0.645184389545291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>49</v>
       </c>
@@ -7528,8 +9224,14 @@
       <c r="H59">
         <v>2058</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.63138925294888504</v>
+      </c>
+      <c r="J59">
+        <v>0.66176745927728897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>52</v>
       </c>
@@ -7554,8 +9256,14 @@
       <c r="H60">
         <v>1716</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.50264270613107798</v>
+      </c>
+      <c r="J60">
+        <v>0.65384615384615297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>44</v>
       </c>
@@ -7580,8 +9288,14 @@
       <c r="H61">
         <v>1452</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.61921411921411895</v>
+      </c>
+      <c r="J61">
+        <v>0.65771728271728203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>44</v>
       </c>
@@ -7606,8 +9320,14 @@
       <c r="H62">
         <v>1408</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.52040120087336195</v>
+      </c>
+      <c r="J62">
+        <v>0.65467447399761802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>49</v>
       </c>
@@ -7632,8 +9352,14 @@
       <c r="H63">
         <v>1666</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.50956396544631799</v>
+      </c>
+      <c r="J63">
+        <v>0.67339803054088698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>49</v>
       </c>
@@ -7658,8 +9384,14 @@
       <c r="H64">
         <v>1470</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.45887096774193498</v>
+      </c>
+      <c r="J64">
+        <v>0.67297564186965098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>39</v>
       </c>
@@ -7684,8 +9416,14 @@
       <c r="H65">
         <v>936</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.49321161048689099</v>
+      </c>
+      <c r="J65">
+        <v>0.68323249783923901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40</v>
       </c>
@@ -7710,8 +9448,14 @@
       <c r="H66">
         <v>1200</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.62737226277372204</v>
+      </c>
+      <c r="J66">
+        <v>0.65538321167883196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>44</v>
       </c>
@@ -7736,8 +9480,14 @@
       <c r="H67">
         <v>1276</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.55725190839694605</v>
+      </c>
+      <c r="J67">
+        <v>0.65458015267175496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>42</v>
       </c>
@@ -7762,8 +9512,14 @@
       <c r="H68">
         <v>1302</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.62275501307759296</v>
+      </c>
+      <c r="J68">
+        <v>0.65862290862290795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>43</v>
       </c>
@@ -7788,8 +9544,14 @@
       <c r="H69">
         <v>1032</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.48174157303370702</v>
+      </c>
+      <c r="J69">
+        <v>0.67611706297360796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>37</v>
       </c>
@@ -7814,8 +9576,14 @@
       <c r="H70">
         <v>851</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.46865520728007998</v>
+      </c>
+      <c r="J70">
+        <v>0.66499057196731604</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>44</v>
       </c>
@@ -7840,8 +9608,14 @@
       <c r="H71">
         <v>1848</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.57317927170868299</v>
+      </c>
+      <c r="J71">
+        <v>0.671039438502673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>44</v>
       </c>
@@ -7866,8 +9640,14 @@
       <c r="H72">
         <v>1144</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.48951048951048898</v>
+      </c>
+      <c r="J72">
+        <v>0.66399793388429695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>39</v>
       </c>
@@ -7892,8 +9672,14 @@
       <c r="H73">
         <v>1053</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.52122854561878895</v>
+      </c>
+      <c r="J73">
+        <v>0.66885553470919301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40</v>
       </c>
@@ -7918,8 +9704,14 @@
       <c r="H74">
         <v>1320</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.58296872467995398</v>
+      </c>
+      <c r="J74">
+        <v>0.64939839572192504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
@@ -7944,8 +9736,14 @@
       <c r="H75">
         <v>1292</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.57705882352941096</v>
+      </c>
+      <c r="J75">
+        <v>0.669473684210526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>43</v>
       </c>
@@ -7970,8 +9768,14 @@
       <c r="H76">
         <v>1419</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.47380050505050503</v>
+      </c>
+      <c r="J76">
+        <v>0.67829457364340995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>41</v>
       </c>
@@ -7996,8 +9800,14 @@
       <c r="H77">
         <v>1189</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.49114631873252501</v>
+      </c>
+      <c r="J77">
+        <v>0.65205449351790801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>47</v>
       </c>
@@ -8022,8 +9832,14 @@
       <c r="H78">
         <v>1410</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.52546296296296302</v>
+      </c>
+      <c r="J78">
+        <v>0.67287234042553101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>43</v>
       </c>
@@ -8048,8 +9864,14 @@
       <c r="H79">
         <v>1333</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.52446626149290898</v>
+      </c>
+      <c r="J79">
+        <v>0.668295697112683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40</v>
       </c>
@@ -8074,8 +9896,14 @@
       <c r="H80">
         <v>1160</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.57656801520499501</v>
+      </c>
+      <c r="J80">
+        <v>0.650295275590551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>53</v>
       </c>
@@ -8100,8 +9928,14 @@
       <c r="H81">
         <v>1855</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.46275510204081599</v>
+      </c>
+      <c r="J81">
+        <v>0.68418688230008895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>43</v>
       </c>
@@ -8126,8 +9960,14 @@
       <c r="H82">
         <v>1204</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.44873271889400901</v>
+      </c>
+      <c r="J82">
+        <v>0.67729432358089503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>49</v>
       </c>
@@ -8152,8 +9992,14 @@
       <c r="H83">
         <v>1666</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.55400500625782201</v>
+      </c>
+      <c r="J83">
+        <v>0.65770733825445005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>39</v>
       </c>
@@ -8178,8 +10024,14 @@
       <c r="H84">
         <v>897</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.45621769534813</v>
+      </c>
+      <c r="J84">
+        <v>0.653128922359691</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>35</v>
       </c>
@@ -8204,8 +10056,14 @@
       <c r="H85">
         <v>840</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.54086976320582802</v>
+      </c>
+      <c r="J85">
+        <v>0.64270101483216202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>32</v>
       </c>
@@ -8230,8 +10088,14 @@
       <c r="H86">
         <v>1056</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.59427609427609396</v>
+      </c>
+      <c r="J86">
+        <v>0.64009081196581197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>46</v>
       </c>
@@ -8256,8 +10120,14 @@
       <c r="H87">
         <v>1886</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.62045793927326998</v>
+      </c>
+      <c r="J87">
+        <v>0.65343093759242799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>44</v>
       </c>
@@ -8282,8 +10152,14 @@
       <c r="H88">
         <v>1672</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.42153110047846798</v>
+      </c>
+      <c r="J88">
+        <v>0.67933884297520597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>49</v>
       </c>
@@ -8308,8 +10184,14 @@
       <c r="H89">
         <v>1568</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.46756827731092399</v>
+      </c>
+      <c r="J89">
+        <v>0.68538844109072194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>48</v>
       </c>
@@ -8334,8 +10216,14 @@
       <c r="H90">
         <v>1536</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.56880040322580605</v>
+      </c>
+      <c r="J90">
+        <v>0.69186827956989205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>39</v>
       </c>
@@ -8360,8 +10248,14 @@
       <c r="H91">
         <v>936</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.49427655677655602</v>
+      </c>
+      <c r="J91">
+        <v>0.66286277824739304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>46</v>
       </c>
@@ -8386,8 +10280,14 @@
       <c r="H92">
         <v>1748</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.58879142300194898</v>
+      </c>
+      <c r="J92">
+        <v>0.65998389694041804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>50</v>
       </c>
@@ -8412,8 +10312,14 @@
       <c r="H93">
         <v>1500</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.48286875725900102</v>
+      </c>
+      <c r="J93">
+        <v>0.66853658536585303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>44</v>
       </c>
@@ -8438,8 +10344,14 @@
       <c r="H94">
         <v>1936</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.59367838044308596</v>
+      </c>
+      <c r="J94">
+        <v>0.67160045836516402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>53</v>
       </c>
@@ -8464,8 +10376,14 @@
       <c r="H95">
         <v>1325</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.44461538461538402</v>
+      </c>
+      <c r="J95">
+        <v>0.66336074826640801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>47</v>
       </c>
@@ -8490,8 +10408,14 @@
       <c r="H96">
         <v>1786</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.52009139615505795</v>
+      </c>
+      <c r="J96">
+        <v>0.70665052872977396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>51</v>
       </c>
@@ -8516,8 +10440,14 @@
       <c r="H97">
         <v>1785</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.498765432098765</v>
+      </c>
+      <c r="J97">
+        <v>0.66727184701040898</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>40</v>
       </c>
@@ -8542,8 +10472,14 @@
       <c r="H98">
         <v>1600</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.62005555555555503</v>
+      </c>
+      <c r="J98">
+        <v>0.65983333333333305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>48</v>
       </c>
@@ -8568,8 +10504,14 @@
       <c r="H99">
         <v>1488</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.47832855897372001</v>
+      </c>
+      <c r="J99">
+        <v>0.67105051480051403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>42</v>
       </c>
@@ -8593,6 +10535,12 @@
       </c>
       <c r="H100">
         <v>1302</v>
+      </c>
+      <c r="I100">
+        <v>0.47379978797516198</v>
+      </c>
+      <c r="J100">
+        <v>0.68784931813100803</v>
       </c>
     </row>
   </sheetData>
@@ -8603,19 +10551,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>51</v>
       </c>
@@ -8640,8 +10589,14 @@
       <c r="H1">
         <v>1428</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>0.473602484472049</v>
+      </c>
+      <c r="J1">
+        <v>0.310599602159704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>47</v>
       </c>
@@ -8666,456 +10621,546 @@
       <c r="H2">
         <v>1598</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>0.56659267480577102</v>
+      </c>
+      <c r="J2">
+        <v>0.33701324769169</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>MAX(C:C)</f>
+        <v>0.59926089659459802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0.51272688089650797</v>
+      </c>
+      <c r="D3">
+        <v>0.43058504364236799</v>
+      </c>
+      <c r="E3">
+        <v>0.53557504873294304</v>
+      </c>
+      <c r="F3">
+        <v>9.8440545808966801E-2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2052</v>
+      </c>
+      <c r="I3">
+        <v>0.50156331422615896</v>
+      </c>
+      <c r="J3">
+        <v>0.319123579024569</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>MIN(C:C)</f>
+        <v>0.46911743463816202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.51374173248571198</v>
+      </c>
+      <c r="D4">
+        <v>0.45939919631480902</v>
+      </c>
+      <c r="E4">
+        <v>0.48729582577132402</v>
+      </c>
+      <c r="F4">
+        <v>0.176950998185117</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1102</v>
+      </c>
+      <c r="I4">
+        <v>0.49787798408487999</v>
+      </c>
+      <c r="J4">
+        <v>0.33056680161943303</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(C:C)</f>
+        <v>0.52934609755831052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0.55260330174855898</v>
+      </c>
+      <c r="D5">
+        <v>0.46858356940509899</v>
+      </c>
+      <c r="E5">
+        <v>0.48689655172413698</v>
+      </c>
+      <c r="F5">
+        <v>7.3793103448275804E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1450</v>
+      </c>
+      <c r="I5">
+        <v>0.45520464067031902</v>
+      </c>
+      <c r="J5">
+        <v>0.313738317757009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0.53347286458638199</v>
+      </c>
+      <c r="D6">
+        <v>0.44245067618991801</v>
+      </c>
+      <c r="E6">
+        <v>0.41505078485687902</v>
+      </c>
+      <c r="F6">
+        <v>0.172206832871652</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2166</v>
+      </c>
+      <c r="I6">
+        <v>0.52931423733596705</v>
+      </c>
+      <c r="J6">
+        <v>0.31303795682235003</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>MAX(D:D)</f>
+        <v>0.54267401052836794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0.58220743429454802</v>
+      </c>
+      <c r="D7">
+        <v>0.45695842270252401</v>
+      </c>
+      <c r="E7">
+        <v>0.463804713804713</v>
+      </c>
+      <c r="F7">
+        <v>0.14898989898989801</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1188</v>
+      </c>
+      <c r="I7">
+        <v>0.51757689893283099</v>
+      </c>
+      <c r="J7">
+        <v>0.35047508988186898</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>MIN(D:D)</f>
+        <v>0.42559336273892001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0.49353130155422398</v>
+      </c>
+      <c r="D8">
+        <v>0.48121963373614002</v>
+      </c>
+      <c r="E8">
+        <v>0.45981554677206798</v>
+      </c>
+      <c r="F8">
+        <v>0.19235836627140901</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1518</v>
+      </c>
+      <c r="I8">
+        <v>0.50124533001245297</v>
+      </c>
+      <c r="J8">
+        <v>0.34142346634901699</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D:D)</f>
+        <v>0.48285104672291551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0.51783264746227697</v>
+      </c>
+      <c r="D9">
+        <v>0.51783182704235298</v>
+      </c>
+      <c r="E9">
+        <v>0.43181818181818099</v>
+      </c>
+      <c r="F9">
+        <v>0.15488215488215401</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1188</v>
+      </c>
+      <c r="I9">
+        <v>0.60426731078904905</v>
+      </c>
+      <c r="J9">
+        <v>0.32497529644268702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0.49031143894157497</v>
+      </c>
+      <c r="D10">
+        <v>0.429798403379616</v>
+      </c>
+      <c r="E10">
+        <v>0.51569858712715799</v>
+      </c>
+      <c r="F10">
+        <v>0.104395604395604</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1274</v>
+      </c>
+      <c r="I10">
+        <v>0.50130133024869805</v>
+      </c>
+      <c r="J10">
+        <v>0.30144238146386299</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="M10">
         <f>MAX(E:E)</f>
         <v>0.68684895833333304</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>0.51272688089650797</v>
-      </c>
-      <c r="D3">
-        <v>0.43058504364236799</v>
-      </c>
-      <c r="E3">
-        <v>0.53557504873294304</v>
-      </c>
-      <c r="F3">
-        <v>9.8440545808966801E-2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2052</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0.50252050580997898</v>
+      </c>
+      <c r="D11">
+        <v>0.51831472620946295</v>
+      </c>
+      <c r="E11">
+        <v>0.66349206349206302</v>
+      </c>
+      <c r="F11">
+        <v>6.2698412698412698E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1260</v>
+      </c>
+      <c r="I11">
+        <v>0.55131103074140997</v>
+      </c>
+      <c r="J11">
+        <v>0.32756680731364202</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="M11">
         <f>MIN(E:E)</f>
         <v>0.32748948106591802</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>0.51374173248571198</v>
-      </c>
-      <c r="D4">
-        <v>0.45939919631480902</v>
-      </c>
-      <c r="E4">
-        <v>0.48729582577132402</v>
-      </c>
-      <c r="F4">
-        <v>0.176950998185117</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1102</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0.53395372233400396</v>
+      </c>
+      <c r="D12">
+        <v>0.47321809645753299</v>
+      </c>
+      <c r="E12">
+        <v>0.66411564625850295</v>
+      </c>
+      <c r="F12">
+        <v>7.3129251700680201E-2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1176</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="M12">
         <f>AVERAGE(E:E)</f>
         <v>0.5019931518315045</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0.48224852071005903</v>
+      </c>
+      <c r="D13">
+        <v>0.48523925906868998</v>
+      </c>
+      <c r="E13">
+        <v>0.63894139886578405</v>
+      </c>
+      <c r="F13">
+        <v>7.6559546313799604E-2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1058</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.35144927536231801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>0.55260330174855898</v>
-      </c>
-      <c r="D5">
-        <v>0.46858356940509899</v>
-      </c>
-      <c r="E5">
-        <v>0.48689655172413698</v>
-      </c>
-      <c r="F5">
-        <v>7.3793103448275804E-2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>0.53347286458638199</v>
-      </c>
-      <c r="D6">
-        <v>0.44245067618991801</v>
-      </c>
-      <c r="E6">
-        <v>0.41505078485687902</v>
-      </c>
-      <c r="F6">
-        <v>0.172206832871652</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2166</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0.51974826388888895</v>
+      </c>
+      <c r="D14">
+        <v>0.49720486111111101</v>
+      </c>
+      <c r="E14">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F14">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="I14">
+        <v>0.51619127516778496</v>
+      </c>
+      <c r="J14">
+        <v>0.36234899328858999</v>
+      </c>
+      <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M14">
         <f>MAX(F:F)</f>
         <v>0.23958333333333301</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0.58220743429454802</v>
-      </c>
-      <c r="D7">
-        <v>0.45695842270252401</v>
-      </c>
-      <c r="E7">
-        <v>0.463804713804713</v>
-      </c>
-      <c r="F7">
-        <v>0.14898989898989801</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1188</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>0.53091521273339404</v>
+      </c>
+      <c r="D15">
+        <v>0.47803822194066098</v>
+      </c>
+      <c r="E15">
+        <v>0.51219512195121897</v>
+      </c>
+      <c r="F15">
+        <v>0.18329637841832899</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1353</v>
+      </c>
+      <c r="I15">
+        <v>0.49230205278592298</v>
+      </c>
+      <c r="J15">
+        <v>0.34333202202989699</v>
+      </c>
+      <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="M15">
         <f>MIN(F:F)</f>
         <v>5.1445578231292498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>0.49353130155422398</v>
-      </c>
-      <c r="D8">
-        <v>0.48121963373614002</v>
-      </c>
-      <c r="E8">
-        <v>0.45981554677206798</v>
-      </c>
-      <c r="F8">
-        <v>0.19235836627140901</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1518</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0.50866974240676599</v>
+      </c>
+      <c r="D16">
+        <v>0.49768008807801101</v>
+      </c>
+      <c r="E16">
+        <v>0.65681818181818097</v>
+      </c>
+      <c r="F16">
+        <v>7.8787878787878698E-2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1320</v>
+      </c>
+      <c r="I16">
+        <v>0.48653846153846098</v>
+      </c>
+      <c r="J16">
+        <v>0.32648601398601301</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="M16">
         <f>AVERAGE(F:F)</f>
         <v>0.12144132674271171</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>0.51783264746227697</v>
-      </c>
-      <c r="D9">
-        <v>0.51783182704235298</v>
-      </c>
-      <c r="E9">
-        <v>0.43181818181818099</v>
-      </c>
-      <c r="F9">
-        <v>0.15488215488215401</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0.49031143894157497</v>
-      </c>
-      <c r="D10">
-        <v>0.429798403379616</v>
-      </c>
-      <c r="E10">
-        <v>0.51569858712715799</v>
-      </c>
-      <c r="F10">
-        <v>0.104395604395604</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1274</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>MAX(D:D)</f>
-        <v>0.54267401052836794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>0.50252050580997898</v>
-      </c>
-      <c r="D11">
-        <v>0.51831472620946295</v>
-      </c>
-      <c r="E11">
-        <v>0.66349206349206302</v>
-      </c>
-      <c r="F11">
-        <v>6.2698412698412698E-2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1260</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>MIN(D:D)</f>
-        <v>0.42559336273892001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>0.53395372233400396</v>
-      </c>
-      <c r="D12">
-        <v>0.47321809645753299</v>
-      </c>
-      <c r="E12">
-        <v>0.66411564625850295</v>
-      </c>
-      <c r="F12">
-        <v>7.3129251700680201E-2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1176</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(D:D)</f>
-        <v>0.48285104672291551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>0.48224852071005903</v>
-      </c>
-      <c r="D13">
-        <v>0.48523925906868998</v>
-      </c>
-      <c r="E13">
-        <v>0.63894139886578405</v>
-      </c>
-      <c r="F13">
-        <v>7.6559546313799604E-2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>0.51974826388888895</v>
-      </c>
-      <c r="D14">
-        <v>0.49720486111111101</v>
-      </c>
-      <c r="E14">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F14">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f>MAX(C:C)</f>
-        <v>0.59926089659459802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>0.53091521273339404</v>
-      </c>
-      <c r="D15">
-        <v>0.47803822194066098</v>
-      </c>
-      <c r="E15">
-        <v>0.51219512195121897</v>
-      </c>
-      <c r="F15">
-        <v>0.18329637841832899</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1353</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <f>MIN(C:C)</f>
-        <v>0.46911743463816202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>44</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>0.50866974240676599</v>
-      </c>
-      <c r="D16">
-        <v>0.49768008807801101</v>
-      </c>
-      <c r="E16">
-        <v>0.65681818181818097</v>
-      </c>
-      <c r="F16">
-        <v>7.8787878787878698E-2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1320</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f>AVERAGE(C:C)</f>
-        <v>0.52934609755831052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>42</v>
       </c>
@@ -9140,8 +11185,14 @@
       <c r="H17">
         <v>1806</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.37048591416146698</v>
+      </c>
+      <c r="J17">
+        <v>0.33904374758033201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>43</v>
       </c>
@@ -9166,8 +11217,21 @@
       <c r="H18">
         <v>1462</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.430323657847418</v>
+      </c>
+      <c r="J18">
+        <v>0.29953285264547502</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>MAX(I:I)</f>
+        <v>0.60433386837881198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>45</v>
       </c>
@@ -9192,8 +11256,21 @@
       <c r="H19">
         <v>1260</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.53449887808526497</v>
+      </c>
+      <c r="J19">
+        <v>0.35235602094240798</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f>MIN(I:I)</f>
+        <v>0.33623693379790898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9218,8 +11295,21 @@
       <c r="H20">
         <v>1271</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.43721817551161901</v>
+      </c>
+      <c r="J20">
+        <v>0.32061369000786699</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(I:I)</f>
+        <v>0.48502041461273637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50</v>
       </c>
@@ -9244,8 +11334,14 @@
       <c r="H21">
         <v>1350</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.447061191626409</v>
+      </c>
+      <c r="J21">
+        <v>0.33902173913043399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>44</v>
       </c>
@@ -9270,8 +11366,21 @@
       <c r="H22">
         <v>1144</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.50485625485625396</v>
+      </c>
+      <c r="J22">
+        <v>0.32426538108356201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <f>MAX(J:J)</f>
+        <v>0.37536443148687998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>47</v>
       </c>
@@ -9296,8 +11405,21 @@
       <c r="H23">
         <v>1786</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.44330625220769998</v>
+      </c>
+      <c r="J23">
+        <v>0.32985863201485</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f>MIN(J:J)</f>
+        <v>0.293334824424066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>41</v>
       </c>
@@ -9322,8 +11444,21 @@
       <c r="H24">
         <v>1148</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.50175070028011204</v>
+      </c>
+      <c r="J24">
+        <v>0.33572453371592498</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J:J)</f>
+        <v>0.3325510428978678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40</v>
       </c>
@@ -9348,8 +11483,14 @@
       <c r="H25">
         <v>960</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.49418604651162701</v>
+      </c>
+      <c r="J25">
+        <v>0.30930232558139498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>43</v>
       </c>
@@ -9374,8 +11515,14 @@
       <c r="H26">
         <v>989</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.52732919254658295</v>
+      </c>
+      <c r="J26">
+        <v>0.350830564784053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>39</v>
       </c>
@@ -9400,8 +11547,14 @@
       <c r="H27">
         <v>1248</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.54170413669064699</v>
+      </c>
+      <c r="J27">
+        <v>0.33158088913484601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>45</v>
       </c>
@@ -9426,8 +11579,14 @@
       <c r="H28">
         <v>1395</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0.44989162310340403</v>
+      </c>
+      <c r="J28">
+        <v>0.30193236714975802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>42</v>
       </c>
@@ -9452,8 +11611,14 @@
       <c r="H29">
         <v>1302</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0.514045377373051</v>
+      </c>
+      <c r="J29">
+        <v>0.35127591706539002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>47</v>
       </c>
@@ -9478,8 +11643,14 @@
       <c r="H30">
         <v>1692</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.51711309523809501</v>
+      </c>
+      <c r="J30">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>46</v>
       </c>
@@ -9504,8 +11675,14 @@
       <c r="H31">
         <v>1610</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.51022280471821702</v>
+      </c>
+      <c r="J31">
+        <v>0.33675708017550798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>48</v>
       </c>
@@ -9530,8 +11707,14 @@
       <c r="H32">
         <v>1584</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.50136852394916898</v>
+      </c>
+      <c r="J32">
+        <v>0.33051075268817198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>48</v>
       </c>
@@ -9556,8 +11739,14 @@
       <c r="H33">
         <v>1536</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.51658653846153801</v>
+      </c>
+      <c r="J33">
+        <v>0.333493589743589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -9582,8 +11771,14 @@
       <c r="H34">
         <v>1444</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.40596919127086001</v>
+      </c>
+      <c r="J34">
+        <v>0.34916559691912702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>39</v>
       </c>
@@ -9608,8 +11803,14 @@
       <c r="H35">
         <v>1365</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.33623693379790898</v>
+      </c>
+      <c r="J35">
+        <v>0.32739212007504598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9634,8 +11835,14 @@
       <c r="H36">
         <v>1120</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.38405448717948698</v>
+      </c>
+      <c r="J36">
+        <v>0.36212454212454198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>51</v>
       </c>
@@ -9660,8 +11867,14 @@
       <c r="H37">
         <v>1785</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.52335687126561603</v>
+      </c>
+      <c r="J37">
+        <v>0.293334824424066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>48</v>
       </c>
@@ -9686,8 +11899,14 @@
       <c r="H38">
         <v>2208</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.40594681997844001</v>
+      </c>
+      <c r="J38">
+        <v>0.34702134986225802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50</v>
       </c>
@@ -9712,8 +11931,14 @@
       <c r="H39">
         <v>1700</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.52002326354270501</v>
+      </c>
+      <c r="J39">
+        <v>0.35158192090395401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -9738,8 +11963,14 @@
       <c r="H40">
         <v>1564</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.38421230561189901</v>
+      </c>
+      <c r="J40">
+        <v>0.34620189905047399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9764,8 +11995,14 @@
       <c r="H41">
         <v>1200</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="J41">
+        <v>0.35891089108910801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>46</v>
       </c>
@@ -9790,8 +12027,14 @@
       <c r="H42">
         <v>1380</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.54027777777777697</v>
+      </c>
+      <c r="J42">
+        <v>0.34347826086956501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -9816,8 +12059,14 @@
       <c r="H43">
         <v>1640</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.42902439024390199</v>
+      </c>
+      <c r="J43">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>50</v>
       </c>
@@ -9842,8 +12091,14 @@
       <c r="H44">
         <v>1300</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.50272133526850504</v>
+      </c>
+      <c r="J44">
+        <v>0.35292452830188598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>54</v>
       </c>
@@ -9868,8 +12123,14 @@
       <c r="H45">
         <v>1620</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.42759336099584999</v>
+      </c>
+      <c r="J45">
+        <v>0.34128630705394097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -9894,8 +12155,14 @@
       <c r="H46">
         <v>1406</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.38229350846173199</v>
+      </c>
+      <c r="J46">
+        <v>0.35969011313330002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
@@ -9920,8 +12187,14 @@
       <c r="H47">
         <v>1584</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.49717514124293699</v>
+      </c>
+      <c r="J47">
+        <v>0.32132768361581898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9946,8 +12219,14 @@
       <c r="H48">
         <v>1739</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.539501039501039</v>
+      </c>
+      <c r="J48">
+        <v>0.335606473904346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -9972,8 +12251,14 @@
       <c r="H49">
         <v>1305</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.54034838250977602</v>
+      </c>
+      <c r="J49">
+        <v>0.33150057273768602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>44</v>
       </c>
@@ -9998,8 +12283,14 @@
       <c r="H50">
         <v>1540</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.42066574202496498</v>
+      </c>
+      <c r="J50">
+        <v>0.34841129744042298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
@@ -10024,8 +12315,14 @@
       <c r="H51">
         <v>874</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.47884212973726997</v>
+      </c>
+      <c r="J51">
+        <v>0.32064452575288399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>41</v>
       </c>
@@ -10050,8 +12347,14 @@
       <c r="H52">
         <v>1271</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.42968466835809999</v>
+      </c>
+      <c r="J52">
+        <v>0.33516031789531298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>44</v>
       </c>
@@ -10076,8 +12379,14 @@
       <c r="H53">
         <v>1408</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.41320353403141302</v>
+      </c>
+      <c r="J53">
+        <v>0.32668967158495898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>37</v>
       </c>
@@ -10102,8 +12411,14 @@
       <c r="H54">
         <v>999</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.43642896627971201</v>
+      </c>
+      <c r="J54">
+        <v>0.33138362242839797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>49</v>
       </c>
@@ -10128,8 +12443,14 @@
       <c r="H55">
         <v>2352</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.35649104683195498</v>
+      </c>
+      <c r="J55">
+        <v>0.30873671782762602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10154,8 +12475,14 @@
       <c r="H56">
         <v>1870</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.51001939237233296</v>
+      </c>
+      <c r="J56">
+        <v>0.32142857142857101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>42</v>
       </c>
@@ -10180,8 +12507,14 @@
       <c r="H57">
         <v>1386</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.47855675398048197</v>
+      </c>
+      <c r="J57">
+        <v>0.35663841807909602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>42</v>
       </c>
@@ -10206,8 +12539,14 @@
       <c r="H58">
         <v>1092</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.49258814102564102</v>
+      </c>
+      <c r="J58">
+        <v>0.364335317460317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>50</v>
       </c>
@@ -10232,8 +12571,14 @@
       <c r="H59">
         <v>1850</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.59609609609609604</v>
+      </c>
+      <c r="J59">
+        <v>0.33206349206349201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>46</v>
       </c>
@@ -10258,8 +12603,14 @@
       <c r="H60">
         <v>1426</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.409379652605459</v>
+      </c>
+      <c r="J60">
+        <v>0.31936454849498302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>41</v>
       </c>
@@ -10284,8 +12635,14 @@
       <c r="H61">
         <v>984</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.57850241545893699</v>
+      </c>
+      <c r="J61">
+        <v>0.343230823612583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>42</v>
       </c>
@@ -10310,8 +12667,14 @@
       <c r="H62">
         <v>1302</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.52819405638811201</v>
+      </c>
+      <c r="J62">
+        <v>0.33567679040119902</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>41</v>
       </c>
@@ -10336,8 +12699,14 @@
       <c r="H63">
         <v>1148</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.47539198606271699</v>
+      </c>
+      <c r="J63">
+        <v>0.325252825698988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>48</v>
       </c>
@@ -10362,8 +12731,14 @@
       <c r="H64">
         <v>1440</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.478341384863124</v>
+      </c>
+      <c r="J64">
+        <v>0.357437600644122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>47</v>
       </c>
@@ -10388,8 +12763,14 @@
       <c r="H65">
         <v>1645</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.47886728655959399</v>
+      </c>
+      <c r="J65">
+        <v>0.31077678459020502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>48</v>
       </c>
@@ -10414,8 +12795,14 @@
       <c r="H66">
         <v>1344</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.54780390417036295</v>
+      </c>
+      <c r="J66">
+        <v>0.31586438923395399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>52</v>
       </c>
@@ -10440,8 +12827,14 @@
       <c r="H67">
         <v>1508</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.56018808777429396</v>
+      </c>
+      <c r="J67">
+        <v>0.32150349650349602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>51</v>
       </c>
@@ -10466,8 +12859,14 @@
       <c r="H68">
         <v>1479</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.377469032474054</v>
+      </c>
+      <c r="J68">
+        <v>0.33875880449266998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>53</v>
       </c>
@@ -10492,8 +12891,14 @@
       <c r="H69">
         <v>1537</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.51524237881059398</v>
+      </c>
+      <c r="J69">
+        <v>0.326565490839485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>47</v>
       </c>
@@ -10518,8 +12923,14 @@
       <c r="H70">
         <v>1645</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.36386554621848699</v>
+      </c>
+      <c r="J70">
+        <v>0.30100125156445501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>47</v>
       </c>
@@ -10544,8 +12955,14 @@
       <c r="H71">
         <v>1645</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.53988494726749703</v>
+      </c>
+      <c r="J71">
+        <v>0.342210481222333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>44</v>
       </c>
@@ -10570,8 +12987,14 @@
       <c r="H72">
         <v>1540</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.444667097608274</v>
+      </c>
+      <c r="J72">
+        <v>0.32296380090497701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>51</v>
       </c>
@@ -10596,8 +13019,14 @@
       <c r="H73">
         <v>2142</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.52317690361168601</v>
+      </c>
+      <c r="J73">
+        <v>0.346736762337785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>43</v>
       </c>
@@ -10622,8 +13051,14 @@
       <c r="H74">
         <v>1505</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.55628997867803798</v>
+      </c>
+      <c r="J74">
+        <v>0.33278375564040202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>47</v>
       </c>
@@ -10648,8 +13083,14 @@
       <c r="H75">
         <v>1645</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.60433386837881198</v>
+      </c>
+      <c r="J75">
+        <v>0.32811379392780299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>49</v>
       </c>
@@ -10674,8 +13115,14 @@
       <c r="H76">
         <v>1372</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.48841900777047198</v>
+      </c>
+      <c r="J76">
+        <v>0.32939117069421903</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>46</v>
       </c>
@@ -10700,8 +13147,14 @@
       <c r="H77">
         <v>1426</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.51083975447303098</v>
+      </c>
+      <c r="J77">
+        <v>0.30976060552719498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>44</v>
       </c>
@@ -10726,8 +13179,14 @@
       <c r="H78">
         <v>1100</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.54341463414634095</v>
+      </c>
+      <c r="J78">
+        <v>0.30820399113081998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>44</v>
       </c>
@@ -10752,8 +13211,14 @@
       <c r="H79">
         <v>1232</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.50274725274725196</v>
+      </c>
+      <c r="J79">
+        <v>0.29895104895104802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>47</v>
       </c>
@@ -10778,8 +13243,14 @@
       <c r="H80">
         <v>1645</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.505766710353866</v>
+      </c>
+      <c r="J80">
+        <v>0.34969744290454802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>47</v>
       </c>
@@ -10804,8 +13275,14 @@
       <c r="H81">
         <v>1551</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.51733199150173304</v>
+      </c>
+      <c r="J81">
+        <v>0.32813849415089802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>43</v>
       </c>
@@ -10830,8 +13307,14 @@
       <c r="H82">
         <v>1419</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.34203323558162202</v>
+      </c>
+      <c r="J82">
+        <v>0.31830457614403601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>48</v>
       </c>
@@ -10856,8 +13339,14 @@
       <c r="H83">
         <v>1776</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.47518830305715498</v>
+      </c>
+      <c r="J83">
+        <v>0.33464253187613802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>40</v>
       </c>
@@ -10882,8 +13371,14 @@
       <c r="H84">
         <v>1280</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.430059523809523</v>
+      </c>
+      <c r="J84">
+        <v>0.36226190476190401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>40</v>
       </c>
@@ -10908,8 +13403,14 @@
       <c r="H85">
         <v>1080</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.483574879227053</v>
+      </c>
+      <c r="J85">
+        <v>0.30597826086956498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>55</v>
       </c>
@@ -10934,8 +13435,14 @@
       <c r="H86">
         <v>1870</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.46935786266697899</v>
+      </c>
+      <c r="J86">
+        <v>0.34802607750814901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>41</v>
       </c>
@@ -10960,8 +13467,14 @@
       <c r="H87">
         <v>1189</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.55885278514588799</v>
+      </c>
+      <c r="J87">
+        <v>0.328681988742964</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>46</v>
       </c>
@@ -10986,8 +13499,14 @@
       <c r="H88">
         <v>1426</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.50070896845090396</v>
+      </c>
+      <c r="J88">
+        <v>0.35917343526039103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>39</v>
       </c>
@@ -11012,8 +13531,14 @@
       <c r="H89">
         <v>1092</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.38659554730983298</v>
+      </c>
+      <c r="J89">
+        <v>0.34781884781884698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>53</v>
       </c>
@@ -11038,8 +13563,14 @@
       <c r="H90">
         <v>1431</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.460758377425044</v>
+      </c>
+      <c r="J90">
+        <v>0.30020215633423097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>49</v>
       </c>
@@ -11064,8 +13595,14 @@
       <c r="H91">
         <v>1715</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.48146258503401301</v>
+      </c>
+      <c r="J91">
+        <v>0.37536443148687998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>48</v>
       </c>
@@ -11090,8 +13627,14 @@
       <c r="H92">
         <v>1488</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.57096774193548305</v>
+      </c>
+      <c r="J92">
+        <v>0.33092105263157801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>53</v>
       </c>
@@ -11116,8 +13659,14 @@
       <c r="H93">
         <v>1696</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.52778336012861704</v>
+      </c>
+      <c r="J93">
+        <v>0.35136200934295903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>54</v>
       </c>
@@ -11142,8 +13691,14 @@
       <c r="H94">
         <v>1620</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.50974625144175301</v>
+      </c>
+      <c r="J94">
+        <v>0.32541971036780698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>43</v>
       </c>
@@ -11168,8 +13723,14 @@
       <c r="H95">
         <v>1247</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.55155343120518896</v>
+      </c>
+      <c r="J95">
+        <v>0.35033387059636101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>54</v>
       </c>
@@ -11194,8 +13755,14 @@
       <c r="H96">
         <v>1890</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.48746355685131199</v>
+      </c>
+      <c r="J96">
+        <v>0.32974300831443598</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>44</v>
       </c>
@@ -11220,8 +13787,14 @@
       <c r="H97">
         <v>1276</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.44553291536050099</v>
+      </c>
+      <c r="J97">
+        <v>0.30849690082644599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>46</v>
       </c>
@@ -11246,8 +13819,14 @@
       <c r="H98">
         <v>1380</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.52355371900826397</v>
+      </c>
+      <c r="J98">
+        <v>0.30892921307941001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>50</v>
       </c>
@@ -11272,8 +13851,14 @@
       <c r="H99">
         <v>2250</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="J99">
+        <v>0.33680555555555503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>47</v>
       </c>
@@ -11297,6 +13882,12 @@
       </c>
       <c r="H100">
         <v>1410</v>
+      </c>
+      <c r="I100">
+        <v>0.48969298245614001</v>
+      </c>
+      <c r="J100">
+        <v>0.32460806270996601</v>
       </c>
     </row>
   </sheetData>

--- a/assignment1/digit-feature-data/Numbers.xlsx
+++ b/assignment1/digit-feature-data/Numbers.xlsx
@@ -132,8 +132,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,7 +240,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -211,6 +265,33 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -235,6 +316,33 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,7 +621,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3860,7 +3968,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J100"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7207,7 +7315,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:J100"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10554,7 +10662,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
